--- a/deployment/Omaha_Cal_Info_CE01ISSM_00003.xlsx
+++ b/deployment/Omaha_Cal_Info_CE01ISSM_00003.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\IRAD\IRAD 2015\Programs\OOI Phase 2\Post Delivery 7 support\Asset Management Data\ingestion-csvs_20151204\ingestion-csvs\CE01ISSM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="27432" yWindow="588" windowWidth="29040" windowHeight="16440" tabRatio="759" activeTab="1"/>
+    <workbookView xWindow="27435" yWindow="585" windowWidth="29040" windowHeight="16440" tabRatio="759" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="227">
   <si>
     <t>Ref Des</t>
   </si>
@@ -412,43 +412,19 @@
     <t>CE01ISSM-SBC11-00-CPMENG000</t>
   </si>
   <si>
-    <t>CP03ISSM-00002-CPM1</t>
-  </si>
-  <si>
-    <t>CE01ISSM-RIC21-00-CPMENG000</t>
-  </si>
-  <si>
-    <t>CP03ISSM-00002-CPM2</t>
-  </si>
-  <si>
     <t>CE01ISSM-MFC31-00-CPMENG000</t>
-  </si>
-  <si>
-    <t>CP03ISSM-00002-CPM3</t>
   </si>
   <si>
     <t>CE01ISSM-SBD17-00-DCLENG000</t>
   </si>
   <si>
-    <t>CP03ISSM-00002-DCL17</t>
-  </si>
-  <si>
     <t>CE01ISSM-RID16-00-DCLENG000</t>
-  </si>
-  <si>
-    <t>CP03ISSM-00002-DCL16</t>
   </si>
   <si>
     <t>CE01ISSM-MFD35-00-DCLENG000</t>
   </si>
   <si>
-    <t>CP03ISSM-00002-DCL35</t>
-  </si>
-  <si>
     <t>CE01ISSM-MFD37-00-DCLENG000</t>
-  </si>
-  <si>
-    <t>CP03ISSM-00002-DCL37</t>
   </si>
   <si>
     <t>Constant; updated value</t>
@@ -695,6 +671,45 @@
   </si>
   <si>
     <t>A01152</t>
+  </si>
+  <si>
+    <t>CE01ISSM-00003-CPM1</t>
+  </si>
+  <si>
+    <t>CE01ISSM-00003-CPM3</t>
+  </si>
+  <si>
+    <t>CE01ISSM-00003-DCL17</t>
+  </si>
+  <si>
+    <t>CE01ISSM-00003-DCL16</t>
+  </si>
+  <si>
+    <t>CE01ISSM-00003-DCL35</t>
+  </si>
+  <si>
+    <t>CE01ISSM-00003-DCL37</t>
+  </si>
+  <si>
+    <t>OL000192</t>
+  </si>
+  <si>
+    <t>OL000193</t>
+  </si>
+  <si>
+    <t>OL000194</t>
+  </si>
+  <si>
+    <t>OL000195</t>
+  </si>
+  <si>
+    <t>OL000196</t>
+  </si>
+  <si>
+    <t>OL000197</t>
+  </si>
+  <si>
+    <t>OL000198</t>
   </si>
 </sst>
 </file>
@@ -1918,24 +1933,24 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" customWidth="1"/>
-    <col min="2" max="4" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="8.88671875" style="2"/>
-    <col min="6" max="6" width="8.88671875" style="3"/>
-    <col min="7" max="7" width="8.88671875" style="2"/>
-    <col min="8" max="8" width="14.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" style="1" customWidth="1"/>
-    <col min="10" max="12" width="8.88671875" style="1"/>
-    <col min="13" max="13" width="12.109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5546875" style="1" customWidth="1"/>
-    <col min="15" max="1026" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="4" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="8.85546875" style="2"/>
+    <col min="6" max="6" width="8.85546875" style="3"/>
+    <col min="7" max="7" width="8.85546875" style="2"/>
+    <col min="8" max="8" width="14.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" style="1" customWidth="1"/>
+    <col min="10" max="12" width="8.85546875" style="1"/>
+    <col min="13" max="13" width="12.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" style="1" customWidth="1"/>
+    <col min="15" max="1026" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="4" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B1" s="56" t="s">
         <v>0</v>
@@ -1971,21 +1986,21 @@
         <v>10</v>
       </c>
       <c r="M1" s="56" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="N1" s="56" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D2" s="7">
         <v>3</v>
@@ -2000,16 +2015,16 @@
         <v>42284</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="J2" s="45">
         <v>25</v>
       </c>
       <c r="K2" s="45" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="L2" s="36"/>
       <c r="M2" s="46">
@@ -2019,7 +2034,7 @@
         <v>-124.09538000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H5" s="37"/>
     </row>
   </sheetData>
@@ -2035,37 +2050,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMM190"/>
+  <dimension ref="A1:AMM189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="E178" sqref="E178"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F192" sqref="F192"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.109375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="10" customWidth="1"/>
     <col min="3" max="3" width="14" style="8" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="22.21875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="26.109375" style="26" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="26.140625" style="26" customWidth="1"/>
     <col min="9" max="9" width="21" style="8" customWidth="1"/>
-    <col min="10" max="10" width="27.33203125" style="8" customWidth="1"/>
-    <col min="11" max="11" width="15.109375" style="8" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="8"/>
-    <col min="13" max="13" width="15.88671875" style="8" customWidth="1"/>
-    <col min="14" max="14" width="26.33203125" style="8" customWidth="1"/>
-    <col min="15" max="1027" width="8.88671875" style="8"/>
+    <col min="10" max="10" width="27.28515625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="8"/>
+    <col min="13" max="13" width="15.85546875" style="8" customWidth="1"/>
+    <col min="14" max="14" width="26.28515625" style="8" customWidth="1"/>
+    <col min="15" max="1027" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1026" s="9" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1026" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="55" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C1" s="55" t="s">
         <v>12</v>
@@ -2074,7 +2089,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="55" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F1" s="55" t="s">
         <v>13</v>
@@ -2089,7 +2104,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
@@ -2100,26 +2115,29 @@
       <c r="H2" s="24"/>
       <c r="I2"/>
     </row>
-    <row r="3" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D3" s="8">
         <v>3</v>
       </c>
+      <c r="E3" t="s">
+        <v>226</v>
+      </c>
       <c r="F3" s="13" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="34"/>
       <c r="I3" s="13" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="J3"/>
       <c r="K3"/>
@@ -3139,7 +3157,7 @@
       <c r="AMK3"/>
       <c r="AML3"/>
     </row>
-    <row r="4" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
@@ -4167,24 +4185,24 @@
       <c r="AMK4"/>
       <c r="AML4"/>
     </row>
-    <row r="5" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D5" s="8">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F5" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>19</v>
@@ -5211,24 +5229,24 @@
       <c r="AMK5"/>
       <c r="AML5"/>
     </row>
-    <row r="6" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D6" s="8">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F6" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>20</v>
@@ -6255,7 +6273,7 @@
       <c r="AMK6"/>
       <c r="AML6"/>
     </row>
-    <row r="7" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
@@ -7283,24 +7301,24 @@
       <c r="AMK7"/>
       <c r="AML7"/>
     </row>
-    <row r="8" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D8" s="8">
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F8" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>19</v>
@@ -7310,24 +7328,24 @@
       </c>
       <c r="J8"/>
     </row>
-    <row r="9" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D9" s="8">
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F9" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>20</v>
@@ -7337,24 +7355,24 @@
       </c>
       <c r="J9"/>
     </row>
-    <row r="10" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D10" s="8">
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F10" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>54</v>
@@ -7365,24 +7383,24 @@
       <c r="I10"/>
       <c r="K10" s="41"/>
     </row>
-    <row r="11" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D11" s="8">
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F11" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>55</v>
@@ -7393,24 +7411,24 @@
       <c r="I11"/>
       <c r="K11" s="41"/>
     </row>
-    <row r="12" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D12" s="8">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F12" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>56</v>
@@ -7421,24 +7439,24 @@
       <c r="I12"/>
       <c r="K12" s="41"/>
     </row>
-    <row r="13" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D13" s="8">
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F13" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>57</v>
@@ -7449,24 +7467,24 @@
       <c r="I13"/>
       <c r="K13" s="41"/>
     </row>
-    <row r="14" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D14" s="8">
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F14" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>58</v>
@@ -7477,24 +7495,24 @@
       <c r="I14"/>
       <c r="K14" s="41"/>
     </row>
-    <row r="15" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D15" s="8">
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F15" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>59</v>
@@ -7505,24 +7523,24 @@
       <c r="I15"/>
       <c r="K15" s="41"/>
     </row>
-    <row r="16" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D16" s="8">
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F16" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>60</v>
@@ -7533,24 +7551,24 @@
       <c r="I16"/>
       <c r="K16" s="41"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D17" s="8">
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F17" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>61</v>
@@ -7561,24 +7579,24 @@
       <c r="I17"/>
       <c r="K17" s="41"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D18" s="8">
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F18" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>62</v>
@@ -7589,24 +7607,24 @@
       <c r="I18"/>
       <c r="K18" s="39"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D19" s="8">
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F19" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>63</v>
@@ -7617,24 +7635,24 @@
       <c r="I19"/>
       <c r="K19" s="39"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D20" s="8">
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F20" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>64</v>
@@ -7645,24 +7663,24 @@
       <c r="I20"/>
       <c r="K20" s="39"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D21" s="8">
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F21" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>65</v>
@@ -7673,24 +7691,24 @@
       <c r="I21"/>
       <c r="K21" s="39"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D22" s="8">
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F22" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G22" s="10" t="s">
         <v>66</v>
@@ -7701,24 +7719,24 @@
       <c r="I22"/>
       <c r="K22" s="39"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D23" s="8">
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F23" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>67</v>
@@ -7729,24 +7747,24 @@
       <c r="I23"/>
       <c r="K23" s="39"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D24" s="8">
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F24" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>68</v>
@@ -7757,24 +7775,24 @@
       <c r="I24"/>
       <c r="K24" s="39"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D25" s="8">
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F25" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>69</v>
@@ -7785,24 +7803,24 @@
       <c r="I25"/>
       <c r="K25" s="39"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D26" s="8">
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F26" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>70</v>
@@ -7813,24 +7831,24 @@
       <c r="I26"/>
       <c r="K26" s="39"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D27" s="8">
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F27" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>71</v>
@@ -7841,24 +7859,24 @@
       <c r="I27"/>
       <c r="K27" s="39"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D28" s="8">
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F28" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>72</v>
@@ -7869,24 +7887,24 @@
       <c r="I28"/>
       <c r="K28" s="39"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D29" s="8">
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F29" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>73</v>
@@ -7897,24 +7915,24 @@
       <c r="I29"/>
       <c r="K29" s="39"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B30" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D30" s="8">
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F30" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>74</v>
@@ -7925,24 +7943,24 @@
       <c r="I30"/>
       <c r="K30" s="39"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B31" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D31" s="8">
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F31" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G31" s="10" t="s">
         <v>75</v>
@@ -7953,7 +7971,7 @@
       <c r="I31"/>
       <c r="K31" s="39"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -7964,21 +7982,21 @@
       <c r="H32" s="34"/>
       <c r="I32"/>
     </row>
-    <row r="33" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>77</v>
       </c>
       <c r="B33" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D33" s="8">
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F33" s="28">
         <v>136</v>
@@ -7991,21 +8009,21 @@
       </c>
       <c r="I33"/>
     </row>
-    <row r="34" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>77</v>
       </c>
       <c r="B34" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D34" s="8">
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F34" s="28">
         <v>136</v>
@@ -8018,21 +8036,21 @@
       </c>
       <c r="I34"/>
     </row>
-    <row r="35" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>77</v>
       </c>
       <c r="B35" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D35" s="8">
         <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F35" s="28">
         <v>136</v>
@@ -8041,7 +8059,7 @@
         <v>78</v>
       </c>
       <c r="H35" s="40" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="I35"/>
       <c r="K35" s="10"/>
@@ -8057,33 +8075,33 @@
       <c r="U35" s="10"/>
       <c r="V35" s="10"/>
     </row>
-    <row r="36" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>77</v>
       </c>
       <c r="B36" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D36" s="10">
         <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F36" s="23">
         <v>136</v>
       </c>
       <c r="G36" s="23" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="H36" s="23" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="I36" s="23" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="K36" s="10"/>
       <c r="L36" s="10"/>
@@ -9103,7 +9121,7 @@
       <c r="AML36" s="10"/>
       <c r="AMM36" s="10"/>
     </row>
-    <row r="37" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
@@ -9114,21 +9132,21 @@
       <c r="H37" s="24"/>
       <c r="I37"/>
     </row>
-    <row r="38" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D38" s="8">
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F38" s="28">
         <v>995</v>
@@ -9141,21 +9159,21 @@
       </c>
       <c r="I38"/>
     </row>
-    <row r="39" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D39" s="8">
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F39" s="28">
         <v>995</v>
@@ -9168,21 +9186,21 @@
       </c>
       <c r="I39"/>
     </row>
-    <row r="40" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D40" s="8">
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F40" s="28">
         <v>995</v>
@@ -9195,21 +9213,21 @@
       </c>
       <c r="I40"/>
     </row>
-    <row r="41" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D41" s="8">
         <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F41" s="28">
         <v>995</v>
@@ -9222,21 +9240,21 @@
       </c>
       <c r="I41"/>
     </row>
-    <row r="42" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D42" s="8">
         <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F42" s="28">
         <v>995</v>
@@ -9249,21 +9267,21 @@
       </c>
       <c r="I42"/>
     </row>
-    <row r="43" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D43" s="8">
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F43" s="28">
         <v>995</v>
@@ -9276,21 +9294,21 @@
       </c>
       <c r="I43"/>
     </row>
-    <row r="44" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D44" s="8">
         <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F44" s="28">
         <v>995</v>
@@ -9302,24 +9320,24 @@
         <v>124</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
-    <row r="45" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8">
         <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F45" s="28">
         <v>995</v>
@@ -9334,21 +9352,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8">
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F46" s="28">
         <v>995</v>
@@ -9360,24 +9378,24 @@
         <v>1.0760000000000001</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
-    <row r="47" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8">
         <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F47" s="28">
         <v>995</v>
@@ -9392,7 +9410,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
@@ -9403,21 +9421,21 @@
       <c r="H48" s="34"/>
       <c r="I48"/>
     </row>
-    <row r="49" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>80</v>
       </c>
       <c r="B49" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D49" s="8">
         <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="F49" s="28">
         <v>264</v>
@@ -9433,21 +9451,21 @@
       </c>
       <c r="K49"/>
     </row>
-    <row r="50" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>80</v>
       </c>
       <c r="B50" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D50" s="8">
         <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="F50" s="28">
         <v>264</v>
@@ -9463,21 +9481,21 @@
       </c>
       <c r="K50"/>
     </row>
-    <row r="51" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>80</v>
       </c>
       <c r="B51" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D51" s="8">
         <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="F51" s="28">
         <v>264</v>
@@ -9491,21 +9509,21 @@
       <c r="I51"/>
       <c r="K51"/>
     </row>
-    <row r="52" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>80</v>
       </c>
       <c r="B52" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D52" s="8">
         <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="F52" s="28">
         <v>264</v>
@@ -9514,26 +9532,26 @@
         <v>84</v>
       </c>
       <c r="H52" s="51" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="I52"/>
       <c r="K52"/>
     </row>
-    <row r="53" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>80</v>
       </c>
       <c r="B53" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D53" s="8">
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="F53" s="28">
         <v>264</v>
@@ -9542,26 +9560,26 @@
         <v>85</v>
       </c>
       <c r="H53" s="51" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="I53"/>
       <c r="K53"/>
     </row>
-    <row r="54" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>80</v>
       </c>
       <c r="B54" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D54" s="8">
         <v>3</v>
       </c>
       <c r="E54" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="F54" s="28">
         <v>264</v>
@@ -9570,26 +9588,26 @@
         <v>86</v>
       </c>
       <c r="H54" s="51" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="I54"/>
       <c r="K54"/>
     </row>
-    <row r="55" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>80</v>
       </c>
       <c r="B55" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D55" s="8">
         <v>3</v>
       </c>
       <c r="E55" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="F55" s="28">
         <v>264</v>
@@ -9598,12 +9616,12 @@
         <v>87</v>
       </c>
       <c r="H55" s="51" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="I55"/>
       <c r="K55"/>
     </row>
-    <row r="56" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A56"/>
       <c r="B56"/>
       <c r="C56"/>
@@ -9614,30 +9632,30 @@
       <c r="H56" s="34"/>
       <c r="I56"/>
     </row>
-    <row r="57" spans="1:1026" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1026" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B57" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D57" s="8">
         <v>3</v>
       </c>
       <c r="E57" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F57" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="G57" s="10" t="s">
         <v>33</v>
       </c>
       <c r="H57" s="52" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="I57"/>
       <c r="K57"/>
@@ -10657,30 +10675,30 @@
       <c r="AMK57"/>
       <c r="AML57"/>
     </row>
-    <row r="58" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B58" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D58" s="8">
         <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F58" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="G58" s="10" t="s">
         <v>34</v>
       </c>
       <c r="H58" s="52" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="I58"/>
       <c r="K58"/>
@@ -11700,24 +11718,24 @@
       <c r="AMK58"/>
       <c r="AML58"/>
     </row>
-    <row r="59" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B59" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D59" s="8">
         <v>3</v>
       </c>
       <c r="E59" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F59" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="G59" s="10" t="s">
         <v>35</v>
@@ -12743,30 +12761,30 @@
       <c r="AMK59"/>
       <c r="AML59"/>
     </row>
-    <row r="60" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B60" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D60" s="8">
         <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F60" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="G60" s="10" t="s">
         <v>36</v>
       </c>
       <c r="H60" s="52" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="I60"/>
       <c r="K60"/>
@@ -13786,30 +13804,30 @@
       <c r="AMK60"/>
       <c r="AML60"/>
     </row>
-    <row r="61" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B61" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D61" s="8">
         <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F61" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="G61" s="10" t="s">
         <v>37</v>
       </c>
       <c r="H61" s="52" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="I61"/>
       <c r="K61"/>
@@ -14829,30 +14847,30 @@
       <c r="AMK61"/>
       <c r="AML61"/>
     </row>
-    <row r="62" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B62" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D62" s="8">
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F62" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="G62" s="10" t="s">
         <v>38</v>
       </c>
       <c r="H62" s="52" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="I62"/>
       <c r="K62"/>
@@ -15872,30 +15890,30 @@
       <c r="AMK62"/>
       <c r="AML62"/>
     </row>
-    <row r="63" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B63" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D63" s="8">
         <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F63" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="G63" s="10" t="s">
         <v>39</v>
       </c>
       <c r="H63" s="40" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="I63"/>
       <c r="K63"/>
@@ -16915,33 +16933,33 @@
       <c r="AMK63"/>
       <c r="AML63"/>
     </row>
-    <row r="64" spans="1:1026" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1026" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B64" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D64" s="11">
         <v>3</v>
       </c>
       <c r="E64" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F64" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="G64" s="12" t="s">
         <v>40</v>
       </c>
       <c r="H64" s="53" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="65" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65"/>
@@ -16952,24 +16970,24 @@
       <c r="H65" s="34"/>
       <c r="I65"/>
     </row>
-    <row r="66" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>118</v>
       </c>
       <c r="B66" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D66" s="8">
         <v>3</v>
       </c>
       <c r="E66" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F66" s="28" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G66" s="10" t="s">
         <v>119</v>
@@ -16979,24 +16997,24 @@
       </c>
       <c r="I66" s="35"/>
     </row>
-    <row r="67" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>118</v>
       </c>
       <c r="B67" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D67" s="8">
         <v>3</v>
       </c>
       <c r="E67" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F67" s="28" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G67" s="10" t="s">
         <v>120</v>
@@ -17006,24 +17024,24 @@
       </c>
       <c r="I67" s="35"/>
     </row>
-    <row r="68" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>118</v>
       </c>
       <c r="B68" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D68" s="8">
         <v>3</v>
       </c>
       <c r="E68" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F68" s="28" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G68" s="10" t="s">
         <v>121</v>
@@ -17033,24 +17051,24 @@
       </c>
       <c r="I68" s="35"/>
     </row>
-    <row r="69" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>118</v>
       </c>
       <c r="B69" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D69" s="8">
         <v>3</v>
       </c>
       <c r="E69" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F69" s="28" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G69" s="10" t="s">
         <v>122</v>
@@ -17060,24 +17078,24 @@
       </c>
       <c r="I69" s="35"/>
     </row>
-    <row r="70" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>118</v>
       </c>
       <c r="B70" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D70" s="8">
         <v>3</v>
       </c>
       <c r="E70" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F70" s="28" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G70" s="10" t="s">
         <v>23</v>
@@ -17086,28 +17104,28 @@
         <v>19706</v>
       </c>
       <c r="I70" s="15" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="AMM70"/>
     </row>
-    <row r="71" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>118</v>
       </c>
       <c r="B71" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D71" s="8">
         <v>3</v>
       </c>
       <c r="E71" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F71" s="28" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G71" s="10" t="s">
         <v>123</v>
@@ -17116,28 +17134,28 @@
         <v>34</v>
       </c>
       <c r="I71" s="16" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="AMM71"/>
     </row>
-    <row r="72" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>118</v>
       </c>
       <c r="B72" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D72" s="8">
         <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F72" s="28" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G72" s="10" t="s">
         <v>25</v>
@@ -17148,24 +17166,24 @@
       <c r="I72" s="16"/>
       <c r="AMM72"/>
     </row>
-    <row r="73" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>118</v>
       </c>
       <c r="B73" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D73" s="8">
         <v>3</v>
       </c>
       <c r="E73" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F73" s="28" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G73" s="10" t="s">
         <v>124</v>
@@ -17176,7 +17194,7 @@
       <c r="I73" s="17"/>
       <c r="AMM73"/>
     </row>
-    <row r="74" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
@@ -17187,24 +17205,24 @@
       <c r="H74" s="34"/>
       <c r="I74"/>
     </row>
-    <row r="75" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B75" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D75" s="8">
         <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F75" s="28" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="G75" s="10" t="s">
         <v>23</v>
@@ -18229,24 +18247,24 @@
       <c r="AMK75"/>
       <c r="AML75"/>
     </row>
-    <row r="76" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B76" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D76" s="8">
         <v>3</v>
       </c>
       <c r="E76" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F76" s="28" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="G76" s="10" t="s">
         <v>24</v>
@@ -19271,24 +19289,24 @@
       <c r="AMK76"/>
       <c r="AML76"/>
     </row>
-    <row r="77" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B77" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D77" s="8">
         <v>3</v>
       </c>
       <c r="E77" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F77" s="28" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="G77" s="10" t="s">
         <v>25</v>
@@ -20313,24 +20331,24 @@
       <c r="AMK77"/>
       <c r="AML77"/>
     </row>
-    <row r="78" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B78" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D78" s="8">
         <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F78" s="28" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="G78" s="10" t="s">
         <v>26</v>
@@ -21355,24 +21373,24 @@
       <c r="AMK78"/>
       <c r="AML78"/>
     </row>
-    <row r="79" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B79" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D79" s="8">
         <v>3</v>
       </c>
       <c r="E79" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F79" s="28" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="G79" s="10" t="s">
         <v>27</v>
@@ -22398,24 +22416,24 @@
       <c r="AMK79"/>
       <c r="AML79"/>
     </row>
-    <row r="80" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B80" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D80" s="8">
         <v>3</v>
       </c>
       <c r="E80" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F80" s="28" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="G80" s="10" t="s">
         <v>28</v>
@@ -23441,24 +23459,24 @@
       <c r="AMK80"/>
       <c r="AML80"/>
     </row>
-    <row r="81" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
         <v>22</v>
       </c>
       <c r="B81" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D81" s="14">
         <v>3</v>
       </c>
       <c r="E81" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="G81" s="14" t="s">
         <v>29</v>
@@ -23467,7 +23485,7 @@
         <v>35</v>
       </c>
       <c r="I81" s="21" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="K81"/>
       <c r="L81"/>
@@ -24486,7 +24504,7 @@
       <c r="AMK81"/>
       <c r="AML81"/>
     </row>
-    <row r="82" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82"/>
@@ -25514,21 +25532,21 @@
       <c r="AMK82"/>
       <c r="AML82"/>
     </row>
-    <row r="83" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
         <v>88</v>
       </c>
       <c r="B83" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D83" s="8">
         <v>3</v>
       </c>
       <c r="E83" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F83" s="28">
         <v>231</v>
@@ -25537,25 +25555,25 @@
         <v>89</v>
       </c>
       <c r="H83" s="49" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="I83"/>
     </row>
-    <row r="84" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
         <v>88</v>
       </c>
       <c r="B84" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D84" s="8">
         <v>3</v>
       </c>
       <c r="E84" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F84" s="28">
         <v>231</v>
@@ -25564,25 +25582,25 @@
         <v>90</v>
       </c>
       <c r="H84" s="49" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="I84"/>
     </row>
-    <row r="85" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D85" s="8">
         <v>3</v>
       </c>
       <c r="E85" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F85" s="28">
         <v>231</v>
@@ -25591,11 +25609,11 @@
         <v>91</v>
       </c>
       <c r="H85" s="49" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="I85"/>
     </row>
-    <row r="86" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86"/>
@@ -25606,24 +25624,24 @@
       <c r="H86" s="34"/>
       <c r="I86"/>
     </row>
-    <row r="87" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D87" s="8">
         <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="F87" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G87" s="10" t="s">
         <v>19</v>
@@ -26650,24 +26668,24 @@
       <c r="AMK87"/>
       <c r="AML87"/>
     </row>
-    <row r="88" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B88" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D88" s="8">
         <v>3</v>
       </c>
       <c r="E88" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="F88" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G88" s="10" t="s">
         <v>20</v>
@@ -27694,7 +27712,7 @@
       <c r="AMK88"/>
       <c r="AML88"/>
     </row>
-    <row r="89" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89"/>
@@ -28722,21 +28740,21 @@
       <c r="AMK89"/>
       <c r="AML89"/>
     </row>
-    <row r="90" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
         <v>92</v>
       </c>
       <c r="B90" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D90" s="8">
         <v>3</v>
       </c>
       <c r="E90" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="F90" s="28">
         <v>21524</v>
@@ -28748,24 +28766,24 @@
         <v>25000</v>
       </c>
       <c r="I90" s="14" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
-    <row r="91" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
         <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D91" s="8">
         <v>3</v>
       </c>
       <c r="E91" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="F91" s="28">
         <v>21524</v>
@@ -28778,21 +28796,21 @@
       </c>
       <c r="I91"/>
     </row>
-    <row r="92" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D92" s="8">
         <v>3</v>
       </c>
       <c r="E92" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="F92" s="28">
         <v>21524</v>
@@ -28805,21 +28823,21 @@
       </c>
       <c r="I92"/>
     </row>
-    <row r="93" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D93" s="8">
         <v>3</v>
       </c>
       <c r="E93" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="F93" s="28">
         <v>21524</v>
@@ -28832,21 +28850,21 @@
       </c>
       <c r="I93"/>
     </row>
-    <row r="94" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D94" s="8">
         <v>3</v>
       </c>
       <c r="E94" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="F94" s="28">
         <v>21524</v>
@@ -28859,21 +28877,21 @@
       </c>
       <c r="I94"/>
     </row>
-    <row r="95" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
         <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D95" s="8">
         <v>3</v>
       </c>
       <c r="E95" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="F95" s="28">
         <v>21524</v>
@@ -28886,21 +28904,21 @@
       </c>
       <c r="I95"/>
     </row>
-    <row r="96" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
         <v>92</v>
       </c>
       <c r="B96" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D96" s="8">
         <v>3</v>
       </c>
       <c r="E96" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="F96" s="28">
         <v>21524</v>
@@ -28913,7 +28931,7 @@
       </c>
       <c r="I96"/>
     </row>
-    <row r="97" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A97"/>
       <c r="B97"/>
       <c r="C97"/>
@@ -28924,24 +28942,24 @@
       <c r="H97" s="34"/>
       <c r="I97"/>
     </row>
-    <row r="98" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A98" s="23" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B98" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C98" s="33" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D98" s="19">
         <v>3</v>
       </c>
       <c r="E98" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="F98" s="23" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="G98" s="19"/>
       <c r="H98" s="23"/>
@@ -29966,7 +29984,7 @@
       <c r="AML98" s="10"/>
       <c r="AMM98" s="10"/>
     </row>
-    <row r="99" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A99" s="19"/>
       <c r="B99" s="23"/>
       <c r="C99" s="19"/>
@@ -30994,24 +31012,24 @@
       <c r="AML99" s="10"/>
       <c r="AMM99" s="10"/>
     </row>
-    <row r="100" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
         <v>76</v>
       </c>
       <c r="B100" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D100" s="8">
         <v>3</v>
       </c>
       <c r="E100" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F100" s="28" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G100" s="10" t="s">
         <v>19</v>
@@ -31021,24 +31039,24 @@
       </c>
       <c r="I100"/>
     </row>
-    <row r="101" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
         <v>76</v>
       </c>
       <c r="B101" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D101" s="8">
         <v>3</v>
       </c>
       <c r="E101" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F101" s="28" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G101" s="10" t="s">
         <v>20</v>
@@ -31048,24 +31066,24 @@
       </c>
       <c r="I101"/>
     </row>
-    <row r="102" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
         <v>76</v>
       </c>
       <c r="B102" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D102" s="8">
         <v>3</v>
       </c>
       <c r="E102" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F102" s="28" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G102" s="10" t="s">
         <v>54</v>
@@ -31075,24 +31093,24 @@
       </c>
       <c r="I102"/>
     </row>
-    <row r="103" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
         <v>76</v>
       </c>
       <c r="B103" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D103" s="8">
         <v>3</v>
       </c>
       <c r="E103" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F103" s="28" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G103" s="10" t="s">
         <v>55</v>
@@ -31102,24 +31120,24 @@
       </c>
       <c r="I103"/>
     </row>
-    <row r="104" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
         <v>76</v>
       </c>
       <c r="B104" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D104" s="8">
         <v>3</v>
       </c>
       <c r="E104" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F104" s="28" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G104" s="10" t="s">
         <v>56</v>
@@ -31129,24 +31147,24 @@
       </c>
       <c r="I104"/>
     </row>
-    <row r="105" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
         <v>76</v>
       </c>
       <c r="B105" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D105" s="8">
         <v>3</v>
       </c>
       <c r="E105" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F105" s="28" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G105" s="10" t="s">
         <v>57</v>
@@ -31156,24 +31174,24 @@
       </c>
       <c r="I105"/>
     </row>
-    <row r="106" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
         <v>76</v>
       </c>
       <c r="B106" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D106" s="8">
         <v>3</v>
       </c>
       <c r="E106" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F106" s="28" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G106" s="10" t="s">
         <v>58</v>
@@ -31183,24 +31201,24 @@
       </c>
       <c r="I106"/>
     </row>
-    <row r="107" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
         <v>76</v>
       </c>
       <c r="B107" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D107" s="8">
         <v>3</v>
       </c>
       <c r="E107" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F107" s="28" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G107" s="10" t="s">
         <v>59</v>
@@ -31210,24 +31228,24 @@
       </c>
       <c r="I107"/>
     </row>
-    <row r="108" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
         <v>76</v>
       </c>
       <c r="B108" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D108" s="8">
         <v>3</v>
       </c>
       <c r="E108" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F108" s="28" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G108" s="10" t="s">
         <v>60</v>
@@ -31237,24 +31255,24 @@
       </c>
       <c r="I108"/>
     </row>
-    <row r="109" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
         <v>76</v>
       </c>
       <c r="B109" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D109" s="8">
         <v>3</v>
       </c>
       <c r="E109" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F109" s="28" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G109" s="10" t="s">
         <v>61</v>
@@ -31264,24 +31282,24 @@
       </c>
       <c r="I109"/>
     </row>
-    <row r="110" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
         <v>76</v>
       </c>
       <c r="B110" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D110" s="8">
         <v>3</v>
       </c>
       <c r="E110" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F110" s="28" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G110" s="10" t="s">
         <v>62</v>
@@ -31291,24 +31309,24 @@
       </c>
       <c r="I110"/>
     </row>
-    <row r="111" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
         <v>76</v>
       </c>
       <c r="B111" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D111" s="8">
         <v>3</v>
       </c>
       <c r="E111" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F111" s="28" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G111" s="10" t="s">
         <v>63</v>
@@ -31318,24 +31336,24 @@
       </c>
       <c r="I111"/>
     </row>
-    <row r="112" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
         <v>76</v>
       </c>
       <c r="B112" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D112" s="8">
         <v>3</v>
       </c>
       <c r="E112" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F112" s="28" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G112" s="10" t="s">
         <v>64</v>
@@ -31345,24 +31363,24 @@
       </c>
       <c r="I112"/>
     </row>
-    <row r="113" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
         <v>76</v>
       </c>
       <c r="B113" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D113" s="8">
         <v>3</v>
       </c>
       <c r="E113" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F113" s="28" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G113" s="10" t="s">
         <v>65</v>
@@ -31372,24 +31390,24 @@
       </c>
       <c r="I113"/>
     </row>
-    <row r="114" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
         <v>76</v>
       </c>
       <c r="B114" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D114" s="8">
         <v>3</v>
       </c>
       <c r="E114" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F114" s="28" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G114" s="10" t="s">
         <v>66</v>
@@ -31399,24 +31417,24 @@
       </c>
       <c r="I114"/>
     </row>
-    <row r="115" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
         <v>76</v>
       </c>
       <c r="B115" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D115" s="8">
         <v>3</v>
       </c>
       <c r="E115" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F115" s="28" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G115" s="10" t="s">
         <v>67</v>
@@ -31426,24 +31444,24 @@
       </c>
       <c r="I115"/>
     </row>
-    <row r="116" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
         <v>76</v>
       </c>
       <c r="B116" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D116" s="8">
         <v>3</v>
       </c>
       <c r="E116" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F116" s="28" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G116" s="10" t="s">
         <v>68</v>
@@ -31453,24 +31471,24 @@
       </c>
       <c r="I116"/>
     </row>
-    <row r="117" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
         <v>76</v>
       </c>
       <c r="B117" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D117" s="8">
         <v>3</v>
       </c>
       <c r="E117" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F117" s="28" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G117" s="10" t="s">
         <v>69</v>
@@ -31480,24 +31498,24 @@
       </c>
       <c r="I117"/>
     </row>
-    <row r="118" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
         <v>76</v>
       </c>
       <c r="B118" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D118" s="8">
         <v>3</v>
       </c>
       <c r="E118" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F118" s="28" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G118" s="10" t="s">
         <v>70</v>
@@ -31507,24 +31525,24 @@
       </c>
       <c r="I118"/>
     </row>
-    <row r="119" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
         <v>76</v>
       </c>
       <c r="B119" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D119" s="8">
         <v>3</v>
       </c>
       <c r="E119" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F119" s="28" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G119" s="10" t="s">
         <v>71</v>
@@ -31534,24 +31552,24 @@
       </c>
       <c r="I119"/>
     </row>
-    <row r="120" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
         <v>76</v>
       </c>
       <c r="B120" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D120" s="8">
         <v>3</v>
       </c>
       <c r="E120" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F120" s="28" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G120" s="10" t="s">
         <v>72</v>
@@ -31561,24 +31579,24 @@
       </c>
       <c r="I120"/>
     </row>
-    <row r="121" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
         <v>76</v>
       </c>
       <c r="B121" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D121" s="8">
         <v>3</v>
       </c>
       <c r="E121" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F121" s="28" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G121" s="10" t="s">
         <v>73</v>
@@ -31588,24 +31606,24 @@
       </c>
       <c r="I121"/>
     </row>
-    <row r="122" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
         <v>76</v>
       </c>
       <c r="B122" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D122" s="8">
         <v>3</v>
       </c>
       <c r="E122" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F122" s="28" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G122" s="10" t="s">
         <v>74</v>
@@ -31615,24 +31633,24 @@
       </c>
       <c r="I122"/>
     </row>
-    <row r="123" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
         <v>76</v>
       </c>
       <c r="B123" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D123" s="8">
         <v>3</v>
       </c>
       <c r="E123" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F123" s="28" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G123" s="10" t="s">
         <v>75</v>
@@ -31642,7 +31660,7 @@
       </c>
       <c r="I123"/>
     </row>
-    <row r="124" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A124"/>
       <c r="B124"/>
       <c r="C124"/>
@@ -31653,21 +31671,21 @@
       <c r="H124" s="34"/>
       <c r="I124"/>
     </row>
-    <row r="125" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
         <v>79</v>
       </c>
       <c r="B125" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D125" s="8">
         <v>3</v>
       </c>
       <c r="E125" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F125" s="28">
         <v>315</v>
@@ -31680,21 +31698,21 @@
       </c>
       <c r="I125"/>
     </row>
-    <row r="126" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
         <v>79</v>
       </c>
       <c r="B126" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D126" s="8">
         <v>3</v>
       </c>
       <c r="E126" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F126" s="28">
         <v>315</v>
@@ -31707,21 +31725,21 @@
       </c>
       <c r="I126"/>
     </row>
-    <row r="127" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
         <v>79</v>
       </c>
       <c r="B127" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D127" s="8">
         <v>3</v>
       </c>
       <c r="E127" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F127" s="28">
         <v>315</v>
@@ -31730,37 +31748,37 @@
         <v>78</v>
       </c>
       <c r="H127" s="40" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="I127"/>
     </row>
-    <row r="128" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
         <v>79</v>
       </c>
       <c r="B128" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D128" s="10">
         <v>3</v>
       </c>
       <c r="E128" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F128" s="28">
         <v>315</v>
       </c>
       <c r="G128" s="23" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="H128" s="23" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="I128" s="23" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="K128" s="10"/>
       <c r="L128" s="10"/>
@@ -32780,7 +32798,7 @@
       <c r="AML128" s="10"/>
       <c r="AMM128" s="10"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129"/>
       <c r="B129"/>
       <c r="C129"/>
@@ -32791,78 +32809,78 @@
       <c r="H129" s="34"/>
       <c r="I129"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B130" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D130" s="8">
         <v>3</v>
       </c>
       <c r="E130" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="F130" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="G130" s="10" t="s">
         <v>33</v>
       </c>
       <c r="H130" s="40" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="I130"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B131" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D131" s="8">
         <v>3</v>
       </c>
       <c r="E131" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="F131" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="G131" s="10" t="s">
         <v>34</v>
       </c>
       <c r="H131" s="40" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="I131"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B132" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D132" s="8">
         <v>3</v>
       </c>
       <c r="E132" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="F132" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="G132" s="10" t="s">
         <v>35</v>
@@ -32872,142 +32890,142 @@
       </c>
       <c r="I132"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B133" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D133" s="8">
         <v>3</v>
       </c>
       <c r="E133" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="F133" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="G133" s="10" t="s">
         <v>36</v>
       </c>
       <c r="H133" s="40" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="I133"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B134" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D134" s="8">
         <v>3</v>
       </c>
       <c r="E134" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="F134" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="G134" s="10" t="s">
         <v>37</v>
       </c>
       <c r="H134" s="40" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="I134"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B135" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D135" s="8">
         <v>3</v>
       </c>
       <c r="E135" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="F135" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="G135" s="10" t="s">
         <v>38</v>
       </c>
       <c r="H135" s="40" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="I135"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B136" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D136" s="8">
         <v>3</v>
       </c>
       <c r="E136" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="F136" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="G136" s="10" t="s">
         <v>39</v>
       </c>
       <c r="H136" s="40" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="I136"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B137" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D137" s="8">
         <v>3</v>
       </c>
       <c r="E137" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="F137" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="G137" s="10" t="s">
         <v>40</v>
       </c>
       <c r="H137" s="40" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="I137"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138"/>
       <c r="B138"/>
       <c r="C138"/>
@@ -33018,24 +33036,24 @@
       <c r="H138" s="24"/>
       <c r="I138"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
         <v>125</v>
       </c>
       <c r="B139" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D139" s="8">
         <v>3</v>
       </c>
       <c r="E139" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F139" s="29" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="G139" s="10" t="s">
         <v>119</v>
@@ -33044,24 +33062,24 @@
         <v>-2.6800000000000001E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
         <v>125</v>
       </c>
       <c r="B140" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D140" s="8">
         <v>3</v>
       </c>
       <c r="E140" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F140" s="29" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="G140" s="10" t="s">
         <v>120</v>
@@ -33070,24 +33088,24 @@
         <v>0.95989999999999998</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
         <v>125</v>
       </c>
       <c r="B141" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D141" s="8">
         <v>3</v>
       </c>
       <c r="E141" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F141" s="29" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="G141" s="10" t="s">
         <v>121</v>
@@ -33096,24 +33114,24 @@
         <v>-1.9703999999999999</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
         <v>125</v>
       </c>
       <c r="B142" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D142" s="8">
         <v>3</v>
       </c>
       <c r="E142" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F142" s="29" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="G142" s="10" t="s">
         <v>122</v>
@@ -33122,24 +33140,24 @@
         <v>16.39</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="8" t="s">
         <v>125</v>
       </c>
       <c r="B143" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D143" s="8">
         <v>3</v>
       </c>
       <c r="E143" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F143" s="29" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="G143" s="10" t="s">
         <v>23</v>
@@ -33148,24 +33166,24 @@
         <v>19706</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="8" t="s">
         <v>125</v>
       </c>
       <c r="B144" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D144" s="8">
         <v>3</v>
       </c>
       <c r="E144" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F144" s="29" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="G144" s="10" t="s">
         <v>123</v>
@@ -33175,24 +33193,24 @@
       </c>
       <c r="J144"/>
     </row>
-    <row r="145" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A145" s="8" t="s">
         <v>125</v>
       </c>
       <c r="B145" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D145" s="8">
         <v>3</v>
       </c>
       <c r="E145" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F145" s="29" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="G145" s="10" t="s">
         <v>25</v>
@@ -33202,24 +33220,24 @@
       </c>
       <c r="J145"/>
     </row>
-    <row r="146" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="s">
         <v>125</v>
       </c>
       <c r="B146" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D146" s="8">
         <v>3</v>
       </c>
       <c r="E146" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F146" s="29" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="G146" s="10" t="s">
         <v>124</v>
@@ -33228,7 +33246,7 @@
         <v>44327</v>
       </c>
     </row>
-    <row r="147" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A147"/>
       <c r="B147"/>
       <c r="C147"/>
@@ -33239,24 +33257,24 @@
       <c r="H147" s="40"/>
       <c r="I147"/>
     </row>
-    <row r="148" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A148" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B148" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D148" s="8">
         <v>3</v>
       </c>
       <c r="E148" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="F148" s="28" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="G148" s="10" t="s">
         <v>23</v>
@@ -34281,24 +34299,24 @@
       <c r="AMK148"/>
       <c r="AML148"/>
     </row>
-    <row r="149" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A149" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B149" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D149" s="8">
         <v>3</v>
       </c>
       <c r="E149" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="F149" s="28" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="G149" s="10" t="s">
         <v>24</v>
@@ -35323,24 +35341,24 @@
       <c r="AMK149"/>
       <c r="AML149"/>
     </row>
-    <row r="150" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A150" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B150" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D150" s="8">
         <v>3</v>
       </c>
       <c r="E150" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="F150" s="28" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="G150" s="10" t="s">
         <v>25</v>
@@ -36365,24 +36383,24 @@
       <c r="AMK150"/>
       <c r="AML150"/>
     </row>
-    <row r="151" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A151" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B151" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D151" s="8">
         <v>3</v>
       </c>
       <c r="E151" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="F151" s="28" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="G151" s="10" t="s">
         <v>26</v>
@@ -37407,24 +37425,24 @@
       <c r="AMK151"/>
       <c r="AML151"/>
     </row>
-    <row r="152" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A152" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B152" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D152" s="8">
         <v>3</v>
       </c>
       <c r="E152" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="F152" s="28" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="G152" s="10" t="s">
         <v>27</v>
@@ -38450,24 +38468,24 @@
       <c r="AMK152"/>
       <c r="AML152"/>
     </row>
-    <row r="153" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A153" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B153" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D153" s="8">
         <v>3</v>
       </c>
       <c r="E153" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="F153" s="28" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="G153" s="10" t="s">
         <v>28</v>
@@ -39493,24 +39511,24 @@
       <c r="AMK153"/>
       <c r="AML153"/>
     </row>
-    <row r="154" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A154" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B154" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C154" s="14" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D154" s="14">
         <v>3</v>
       </c>
       <c r="E154" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="F154" s="14" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="G154" s="14" t="s">
         <v>29</v>
@@ -39519,7 +39537,7 @@
         <v>35</v>
       </c>
       <c r="I154" s="22" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="K154"/>
       <c r="L154"/>
@@ -40538,7 +40556,7 @@
       <c r="AMK154"/>
       <c r="AML154"/>
     </row>
-    <row r="155" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A155"/>
       <c r="B155"/>
       <c r="C155"/>
@@ -41565,24 +41583,24 @@
       <c r="AMK155"/>
       <c r="AML155"/>
     </row>
-    <row r="156" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A156" s="8" t="s">
         <v>99</v>
       </c>
       <c r="B156" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D156" s="8">
         <v>3</v>
       </c>
       <c r="E156" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="F156" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G156" s="10" t="s">
         <v>100</v>
@@ -41591,27 +41609,27 @@
         <v>601.7722</v>
       </c>
       <c r="I156" s="31" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="157" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A157" s="8" t="s">
         <v>99</v>
       </c>
       <c r="B157" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D157" s="8">
         <v>3</v>
       </c>
       <c r="E157" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="F157" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G157" s="10" t="s">
         <v>101</v>
@@ -41620,27 +41638,27 @@
         <v>2.8800530000000002</v>
       </c>
       <c r="I157" s="31" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
-    <row r="158" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A158" s="8" t="s">
         <v>99</v>
       </c>
       <c r="B158" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D158" s="8">
         <v>3</v>
       </c>
       <c r="E158" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="F158" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G158" s="10" t="s">
         <v>102</v>
@@ -41650,24 +41668,24 @@
       </c>
       <c r="I158" s="32"/>
     </row>
-    <row r="159" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A159" s="8" t="s">
         <v>99</v>
       </c>
       <c r="B159" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D159" s="8">
         <v>3</v>
       </c>
       <c r="E159" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="F159" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G159" s="10" t="s">
         <v>103</v>
@@ -41677,24 +41695,24 @@
       </c>
       <c r="I159" s="32"/>
     </row>
-    <row r="160" spans="1:1026" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A160" s="8" t="s">
         <v>99</v>
       </c>
       <c r="B160" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D160" s="8">
         <v>3</v>
       </c>
       <c r="E160" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="F160" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G160" s="10" t="s">
         <v>104</v>
@@ -41704,24 +41722,24 @@
       </c>
       <c r="I160"/>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="8" t="s">
         <v>99</v>
       </c>
       <c r="B161" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D161" s="8">
         <v>3</v>
       </c>
       <c r="E161" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="F161" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G161" s="10" t="s">
         <v>105</v>
@@ -41734,24 +41752,24 @@
       </c>
       <c r="J161"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="8" t="s">
         <v>99</v>
       </c>
       <c r="B162" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D162" s="8">
         <v>3</v>
       </c>
       <c r="E162" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="F162" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G162" s="10" t="s">
         <v>106</v>
@@ -41760,28 +41778,28 @@
         <v>-0.223</v>
       </c>
       <c r="I162" s="20" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="J162"/>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="8" t="s">
         <v>99</v>
       </c>
       <c r="B163" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D163" s="8">
         <v>3</v>
       </c>
       <c r="E163" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="F163" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G163" s="10" t="s">
         <v>107</v>
@@ -41794,24 +41812,24 @@
       </c>
       <c r="J163"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="s">
         <v>99</v>
       </c>
       <c r="B164" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D164" s="8">
         <v>3</v>
       </c>
       <c r="E164" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="F164" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G164" s="10" t="s">
         <v>108</v>
@@ -41821,24 +41839,24 @@
       </c>
       <c r="I164"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="8" t="s">
         <v>99</v>
       </c>
       <c r="B165" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D165" s="8">
         <v>3</v>
       </c>
       <c r="E165" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="F165" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G165" s="10" t="s">
         <v>109</v>
@@ -41848,24 +41866,24 @@
       </c>
       <c r="I165"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="8" t="s">
         <v>99</v>
       </c>
       <c r="B166" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D166" s="8">
         <v>3</v>
       </c>
       <c r="E166" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="F166" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G166" s="10" t="s">
         <v>110</v>
@@ -41875,24 +41893,24 @@
       </c>
       <c r="I166"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="8" t="s">
         <v>99</v>
       </c>
       <c r="B167" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D167" s="8">
         <v>3</v>
       </c>
       <c r="E167" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="F167" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G167" s="10" t="s">
         <v>111</v>
@@ -41902,24 +41920,24 @@
       </c>
       <c r="I167"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="8" t="s">
         <v>99</v>
       </c>
       <c r="B168" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D168" s="8">
         <v>3</v>
       </c>
       <c r="E168" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="F168" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G168" s="10" t="s">
         <v>112</v>
@@ -41929,24 +41947,24 @@
       </c>
       <c r="I168"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="8" t="s">
         <v>99</v>
       </c>
       <c r="B169" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D169" s="8">
         <v>3</v>
       </c>
       <c r="E169" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="F169" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G169" s="10" t="s">
         <v>113</v>
@@ -41956,24 +41974,24 @@
       </c>
       <c r="I169"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="8" t="s">
         <v>99</v>
       </c>
       <c r="B170" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D170" s="8">
         <v>3</v>
       </c>
       <c r="E170" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="F170" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G170" s="10" t="s">
         <v>114</v>
@@ -41984,24 +42002,24 @@
       <c r="I170"/>
       <c r="J170"/>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="8" t="s">
         <v>99</v>
       </c>
       <c r="B171" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D171" s="8">
         <v>3</v>
       </c>
       <c r="E171" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="F171" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G171" s="10" t="s">
         <v>115</v>
@@ -42011,24 +42029,24 @@
       </c>
       <c r="I171"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="8" t="s">
         <v>99</v>
       </c>
       <c r="B172" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D172" s="8">
         <v>3</v>
       </c>
       <c r="E172" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="F172" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G172" s="10" t="s">
         <v>116</v>
@@ -42038,24 +42056,24 @@
       </c>
       <c r="I172"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="8" t="s">
         <v>99</v>
       </c>
       <c r="B173" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D173" s="8">
         <v>3</v>
       </c>
       <c r="E173" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="F173" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G173" s="10" t="s">
         <v>117</v>
@@ -42065,7 +42083,7 @@
       </c>
       <c r="I173"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174"/>
       <c r="B174"/>
       <c r="C174"/>
@@ -42077,21 +42095,21 @@
       <c r="I174"/>
       <c r="J174"/>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="8" t="s">
         <v>98</v>
       </c>
       <c r="B175" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D175" s="8">
         <v>3</v>
       </c>
       <c r="E175" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="F175" s="28">
         <v>8158</v>
@@ -42105,21 +42123,21 @@
       <c r="I175"/>
       <c r="J175"/>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="8" t="s">
         <v>98</v>
       </c>
       <c r="B176" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D176" s="8">
         <v>3</v>
       </c>
       <c r="E176" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="F176" s="28">
         <v>8158</v>
@@ -42133,7 +42151,7 @@
       <c r="I176"/>
       <c r="J176"/>
     </row>
-    <row r="177" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A177"/>
       <c r="B177"/>
       <c r="C177"/>
@@ -42145,21 +42163,21 @@
       <c r="I177"/>
       <c r="J177"/>
     </row>
-    <row r="178" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A178" s="23" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B178" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C178" s="33" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D178" s="19">
         <v>3</v>
       </c>
       <c r="E178" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="F178" s="23">
         <v>55076</v>
@@ -43188,7 +43206,7 @@
       <c r="AML178" s="10"/>
       <c r="AMM178" s="10"/>
     </row>
-    <row r="179" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A179"/>
       <c r="B179"/>
       <c r="C179"/>
@@ -43198,7 +43216,7 @@
       <c r="G179" s="10"/>
       <c r="J179"/>
     </row>
-    <row r="180" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A180"/>
       <c r="B180"/>
       <c r="C180"/>
@@ -43208,7 +43226,7 @@
       <c r="G180" s="10"/>
       <c r="I180"/>
     </row>
-    <row r="181" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A181"/>
       <c r="B181"/>
       <c r="C181"/>
@@ -43217,7 +43235,7 @@
       <c r="F181"/>
       <c r="G181" s="10"/>
     </row>
-    <row r="182" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A182"/>
       <c r="B182"/>
       <c r="C182"/>
@@ -43227,156 +43245,155 @@
       <c r="G182" s="10"/>
       <c r="I182"/>
     </row>
-    <row r="183" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A183" s="8" t="s">
         <v>126</v>
       </c>
       <c r="B183" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D183" s="8">
         <v>3</v>
       </c>
+      <c r="E183" t="s">
+        <v>220</v>
+      </c>
       <c r="F183" s="13" t="s">
-        <v>127</v>
+        <v>214</v>
       </c>
       <c r="G183" s="10"/>
       <c r="I183" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="184" spans="1:1027" x14ac:dyDescent="0.3">
-      <c r="J184" s="8" t="s">
+    <row r="184" spans="1:1027" x14ac:dyDescent="0.25">
+      <c r="A184" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B184" t="s">
+        <v>187</v>
+      </c>
+      <c r="C184" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D184" s="8">
+        <v>3</v>
+      </c>
+      <c r="E184" t="s">
+        <v>221</v>
+      </c>
+      <c r="F184" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="G184" s="10"/>
+      <c r="I184" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1027" x14ac:dyDescent="0.25">
+      <c r="A185"/>
+      <c r="B185"/>
+      <c r="C185"/>
+      <c r="D185"/>
+      <c r="E185"/>
+      <c r="F185" s="13"/>
+      <c r="G185" s="10"/>
+      <c r="I185"/>
+    </row>
+    <row r="186" spans="1:1027" x14ac:dyDescent="0.25">
+      <c r="A186" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="K184" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="L184" s="8">
+      <c r="B186" t="s">
+        <v>187</v>
+      </c>
+      <c r="C186" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D186" s="8">
         <v>3</v>
       </c>
-      <c r="M184" s="13" t="s">
+      <c r="E186" t="s">
+        <v>222</v>
+      </c>
+      <c r="F186" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="G186" s="10"/>
+      <c r="I186" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1027" x14ac:dyDescent="0.25">
+      <c r="A187" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="N184" s="10"/>
-      <c r="O184" s="26"/>
-      <c r="P184" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1027" x14ac:dyDescent="0.3">
-      <c r="A185" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B185" t="s">
-        <v>195</v>
-      </c>
-      <c r="C185" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="D185" s="8">
-        <v>3</v>
-      </c>
-      <c r="F185" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="G185" s="10"/>
-      <c r="I185" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1027" x14ac:dyDescent="0.3">
-      <c r="A186"/>
-      <c r="B186"/>
-      <c r="C186"/>
-      <c r="D186"/>
-      <c r="E186"/>
-      <c r="F186" s="13"/>
-      <c r="G186" s="10"/>
-      <c r="I186"/>
-    </row>
-    <row r="187" spans="1:1027" x14ac:dyDescent="0.3">
-      <c r="A187" s="8" t="s">
-        <v>132</v>
-      </c>
       <c r="B187" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D187" s="8">
         <v>3</v>
       </c>
+      <c r="E187" t="s">
+        <v>223</v>
+      </c>
       <c r="F187" s="13" t="s">
-        <v>133</v>
+        <v>217</v>
       </c>
       <c r="G187" s="10"/>
       <c r="I187" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="188" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A188" s="8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B188" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D188" s="8">
         <v>3</v>
       </c>
+      <c r="E188" t="s">
+        <v>224</v>
+      </c>
       <c r="F188" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="G188" s="10"/>
+        <v>218</v>
+      </c>
       <c r="I188" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="189" spans="1:1027" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A189" s="8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B189" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D189" s="8">
         <v>3</v>
       </c>
+      <c r="E189" t="s">
+        <v>225</v>
+      </c>
       <c r="F189" s="13" t="s">
-        <v>137</v>
+        <v>219</v>
       </c>
       <c r="I189" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1027" x14ac:dyDescent="0.3">
-      <c r="A190" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B190" t="s">
-        <v>195</v>
-      </c>
-      <c r="C190" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="D190" s="8">
-        <v>3</v>
-      </c>
-      <c r="F190" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="I190" s="8" t="s">
         <v>17</v>
       </c>
     </row>
@@ -43397,12 +43414,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="42"/>
+    <col min="1" max="16384" width="8.85546875" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="42">
         <v>-7.3966000000000004E-2</v>
       </c>
@@ -43521,7 +43538,7 @@
         <v>4.8176999999999998E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="42">
         <v>-6.1276999999999998E-2</v>
       </c>
@@ -43640,7 +43657,7 @@
         <v>3.6867999999999998E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="42">
         <v>-4.7830999999999999E-2</v>
       </c>
@@ -43759,7 +43776,7 @@
         <v>2.6801999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="42">
         <v>-3.5496E-2</v>
       </c>
@@ -43878,7 +43895,7 @@
         <v>1.6670999999999998E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="42">
         <v>-2.5148E-2</v>
       </c>
@@ -43997,7 +44014,7 @@
         <v>1.0116999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="42">
         <v>-1.9942000000000001E-2</v>
       </c>
@@ -44116,7 +44133,7 @@
         <v>6.0359999999999997E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="42">
         <v>-1.6060000000000001E-2</v>
       </c>
@@ -44235,7 +44252,7 @@
         <v>3.5339999999999998E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="42">
         <v>-1.375E-2</v>
       </c>
@@ -44354,7 +44371,7 @@
         <v>2.274E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="42">
         <v>-1.3162999999999999E-2</v>
       </c>
@@ -44473,7 +44490,7 @@
         <v>1.193E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="42">
         <v>-1.1882999999999999E-2</v>
       </c>
@@ -44592,7 +44609,7 @@
         <v>6.6600000000000003E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="42">
         <v>-1.1197E-2</v>
       </c>
@@ -44711,7 +44728,7 @@
         <v>5.2599999999999999E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="42">
         <v>-1.0940999999999999E-2</v>
       </c>
@@ -44830,7 +44847,7 @@
         <v>9.1000000000000003E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="42">
         <v>-1.0465E-2</v>
       </c>
@@ -44949,7 +44966,7 @@
         <v>6.8999999999999997E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="42">
         <v>-9.724E-3</v>
       </c>
@@ -45068,7 +45085,7 @@
         <v>-8.7999999999999998E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="42">
         <v>-9.3410000000000003E-3</v>
       </c>
@@ -45187,7 +45204,7 @@
         <v>-2.3800000000000001E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" s="42">
         <v>-9.0109999999999999E-3</v>
       </c>
@@ -45306,7 +45323,7 @@
         <v>-3.7599999999999998E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="42">
         <v>-8.4989999999999996E-3</v>
       </c>
@@ -45425,7 +45442,7 @@
         <v>-3.8200000000000002E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" s="42">
         <v>-8.2500000000000004E-3</v>
       </c>
@@ -45544,7 +45561,7 @@
         <v>-3.6000000000000002E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" s="42">
         <v>-7.9740000000000002E-3</v>
       </c>
@@ -45663,7 +45680,7 @@
         <v>-4.0400000000000001E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" s="42">
         <v>-7.5770000000000004E-3</v>
       </c>
@@ -45782,7 +45799,7 @@
         <v>-3.6499999999999998E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" s="42">
         <v>-7.1260000000000004E-3</v>
       </c>
@@ -45901,7 +45918,7 @@
         <v>-3.6400000000000001E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" s="42">
         <v>-7.0949999999999997E-3</v>
       </c>
@@ -46020,7 +46037,7 @@
         <v>-2.3900000000000001E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" s="42">
         <v>-6.6779999999999999E-3</v>
       </c>
@@ -46139,7 +46156,7 @@
         <v>-2.23E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" s="42">
         <v>-6.5399999999999998E-3</v>
       </c>
@@ -46258,7 +46275,7 @@
         <v>-2.2100000000000001E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" s="42">
         <v>-5.9490000000000003E-3</v>
       </c>
@@ -46377,7 +46394,7 @@
         <v>-8.2999999999999998E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" s="42">
         <v>-6.0980000000000001E-3</v>
       </c>
@@ -46496,7 +46513,7 @@
         <v>-1.08E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" s="42">
         <v>-6.0289999999999996E-3</v>
       </c>
@@ -46615,7 +46632,7 @@
         <v>8.7999999999999998E-5</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" s="42">
         <v>-5.8939999999999999E-3</v>
       </c>
@@ -46734,7 +46751,7 @@
         <v>5.5999999999999999E-5</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" s="42">
         <v>-5.6769999999999998E-3</v>
       </c>
@@ -46853,7 +46870,7 @@
         <v>1.5899999999999999E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" s="42">
         <v>-5.3889999999999997E-3</v>
       </c>
@@ -46972,7 +46989,7 @@
         <v>3.1300000000000002E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" s="42">
         <v>-5.2849999999999998E-3</v>
       </c>
@@ -47091,7 +47108,7 @@
         <v>2.5599999999999999E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" s="42">
         <v>-5.2719999999999998E-3</v>
       </c>
@@ -47210,7 +47227,7 @@
         <v>2.7399999999999999E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33" s="42">
         <v>-5.2350000000000001E-3</v>
       </c>
@@ -47329,7 +47346,7 @@
         <v>3.4600000000000001E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34" s="42">
         <v>-5.2399999999999999E-3</v>
       </c>
@@ -47448,7 +47465,7 @@
         <v>3.1500000000000001E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35" s="42">
         <v>-5.1770000000000002E-3</v>
       </c>
@@ -47567,7 +47584,7 @@
         <v>3.2499999999999999E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A36" s="42">
         <v>-5.1659999999999996E-3</v>
       </c>
@@ -47686,7 +47703,7 @@
         <v>2.8899999999999998E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37" s="42">
         <v>-5.2589999999999998E-3</v>
       </c>
@@ -47805,7 +47822,7 @@
         <v>1.6799999999999999E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38" s="42">
         <v>-5.0829999999999998E-3</v>
       </c>
@@ -47924,7 +47941,7 @@
         <v>1.73E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A39" s="42">
         <v>-5.0679999999999996E-3</v>
       </c>
@@ -48043,7 +48060,7 @@
         <v>5.8999999999999998E-5</v>
       </c>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A40" s="42">
         <v>-5.0980000000000001E-3</v>
       </c>
@@ -48162,7 +48179,7 @@
         <v>-6.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A41" s="42">
         <v>-4.8739999999999999E-3</v>
       </c>
@@ -48281,7 +48298,7 @@
         <v>-4.6E-5</v>
       </c>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A42" s="42">
         <v>-4.7349999999999996E-3</v>
       </c>
@@ -48400,7 +48417,7 @@
         <v>-1.95E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A43" s="42">
         <v>-4.8650000000000004E-3</v>
       </c>
@@ -48519,7 +48536,7 @@
         <v>-2.2800000000000001E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A44" s="42">
         <v>-5.0379999999999999E-3</v>
       </c>
@@ -48638,7 +48655,7 @@
         <v>-1.35E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A45" s="42">
         <v>-5.2209999999999999E-3</v>
       </c>
@@ -48757,7 +48774,7 @@
         <v>-3.4299999999999999E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A46" s="42">
         <v>-4.8710000000000003E-3</v>
       </c>
@@ -48876,7 +48893,7 @@
         <v>-3.1700000000000001E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A47" s="42">
         <v>-4.823E-3</v>
       </c>
@@ -48995,7 +49012,7 @@
         <v>-3.3599999999999998E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A48" s="42">
         <v>-4.7210000000000004E-3</v>
       </c>
@@ -49114,7 +49131,7 @@
         <v>-3.0400000000000002E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A49" s="42">
         <v>-4.8170000000000001E-3</v>
       </c>
@@ -49233,7 +49250,7 @@
         <v>-2.4000000000000001E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A50" s="42">
         <v>-4.7540000000000004E-3</v>
       </c>
@@ -49352,7 +49369,7 @@
         <v>-1.45E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A51" s="42">
         <v>-4.7419999999999997E-3</v>
       </c>
@@ -49471,7 +49488,7 @@
         <v>-8.1000000000000004E-5</v>
       </c>
     </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A52" s="42">
         <v>-4.9059999999999998E-3</v>
       </c>
@@ -49590,7 +49607,7 @@
         <v>-3.9999999999999998E-6</v>
       </c>
     </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A53" s="42">
         <v>-4.9760000000000004E-3</v>
       </c>
@@ -49709,7 +49726,7 @@
         <v>6.7000000000000002E-5</v>
       </c>
     </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A54" s="42">
         <v>-4.9259999999999998E-3</v>
       </c>
@@ -49828,7 +49845,7 @@
         <v>1.66E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A55" s="42">
         <v>-4.9439999999999996E-3</v>
       </c>
@@ -49947,7 +49964,7 @@
         <v>2.1900000000000001E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A56" s="42">
         <v>-4.9659999999999999E-3</v>
       </c>
@@ -50066,7 +50083,7 @@
         <v>2.5399999999999999E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A57" s="42">
         <v>-5.0819999999999997E-3</v>
       </c>
@@ -50185,7 +50202,7 @@
         <v>3.5799999999999997E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A58" s="42">
         <v>-5.1710000000000002E-3</v>
       </c>
@@ -50304,7 +50321,7 @@
         <v>3.4499999999999998E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A59" s="42">
         <v>-5.2129999999999998E-3</v>
       </c>
@@ -50423,7 +50440,7 @@
         <v>3.5799999999999997E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A60" s="42">
         <v>-5.1770000000000002E-3</v>
       </c>
@@ -50542,7 +50559,7 @@
         <v>4.7600000000000002E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A61" s="42">
         <v>-5.2480000000000001E-3</v>
       </c>
@@ -50661,7 +50678,7 @@
         <v>5.13E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A62" s="42">
         <v>-5.2950000000000002E-3</v>
       </c>
@@ -50780,7 +50797,7 @@
         <v>5.5500000000000005E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A63" s="42">
         <v>-5.2529999999999999E-3</v>
       </c>
@@ -50899,7 +50916,7 @@
         <v>6.0700000000000001E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A64" s="42">
         <v>-5.1060000000000003E-3</v>
       </c>
@@ -51018,7 +51035,7 @@
         <v>6.5099999999999999E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A65" s="42">
         <v>-5.3569999999999998E-3</v>
       </c>
@@ -51137,7 +51154,7 @@
         <v>7.2499999999999995E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A66" s="42">
         <v>-5.5110000000000003E-3</v>
       </c>
@@ -51256,7 +51273,7 @@
         <v>7.6900000000000004E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A67" s="42">
         <v>-5.5100000000000001E-3</v>
       </c>
@@ -51375,7 +51392,7 @@
         <v>7.7700000000000002E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A68" s="42">
         <v>-5.5360000000000001E-3</v>
       </c>
@@ -51494,7 +51511,7 @@
         <v>8.2100000000000001E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A69" s="42">
         <v>-5.594E-3</v>
       </c>
@@ -51613,7 +51630,7 @@
         <v>8.2299999999999995E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A70" s="42">
         <v>-5.6350000000000003E-3</v>
       </c>
@@ -51732,7 +51749,7 @@
         <v>8.1999999999999998E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A71" s="42">
         <v>-5.6959999999999997E-3</v>
       </c>
@@ -51851,7 +51868,7 @@
         <v>8.0500000000000005E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A72" s="42">
         <v>-5.8580000000000004E-3</v>
       </c>
@@ -51970,7 +51987,7 @@
         <v>7.2800000000000002E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A73" s="42">
         <v>-5.921E-3</v>
       </c>
@@ -52089,7 +52106,7 @@
         <v>6.96E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A74" s="42">
         <v>-6.2139999999999999E-3</v>
       </c>
@@ -52208,7 +52225,7 @@
         <v>6.2600000000000004E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A75" s="42">
         <v>-6.3920000000000001E-3</v>
       </c>
@@ -52327,7 +52344,7 @@
         <v>5.3200000000000003E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A76" s="42">
         <v>-6.2729999999999999E-3</v>
       </c>
@@ -52446,7 +52463,7 @@
         <v>4.6200000000000001E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A77" s="42">
         <v>-6.2680000000000001E-3</v>
       </c>
@@ -52565,7 +52582,7 @@
         <v>3.3100000000000002E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A78" s="42">
         <v>-5.9680000000000002E-3</v>
       </c>
@@ -52684,7 +52701,7 @@
         <v>1.5699999999999999E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A79" s="42">
         <v>-5.9449999999999998E-3</v>
       </c>
@@ -52803,7 +52820,7 @@
         <v>1.15E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A80" s="42">
         <v>-6.0559999999999998E-3</v>
       </c>
@@ -52922,7 +52939,7 @@
         <v>1.1E-5</v>
       </c>
     </row>
-    <row r="81" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A81" s="42">
         <v>-6.3150000000000003E-3</v>
       </c>
@@ -53041,7 +53058,7 @@
         <v>-3.3000000000000003E-5</v>
       </c>
     </row>
-    <row r="82" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A82" s="42">
         <v>-6.4619999999999999E-3</v>
       </c>
@@ -53160,7 +53177,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="83" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A83" s="42">
         <v>-6.7120000000000001E-3</v>
       </c>
@@ -53295,12 +53312,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="42"/>
+    <col min="1" max="16384" width="8.85546875" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="42">
         <v>-1.5546000000000001E-2</v>
       </c>
@@ -53419,7 +53436,7 @@
         <v>-8.8900000000000003E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="42">
         <v>-1.3672E-2</v>
       </c>
@@ -53538,7 +53555,7 @@
         <v>-7.3759999999999997E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="42">
         <v>-1.4838E-2</v>
       </c>
@@ -53657,7 +53674,7 @@
         <v>-7.1679999999999999E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="42">
         <v>-1.4180999999999999E-2</v>
       </c>
@@ -53776,7 +53793,7 @@
         <v>-6.3870000000000003E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="42">
         <v>-1.2524E-2</v>
       </c>
@@ -53895,7 +53912,7 @@
         <v>-5.293E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="42">
         <v>-1.2055E-2</v>
       </c>
@@ -54014,7 +54031,7 @@
         <v>-5.607E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="42">
         <v>-1.0744999999999999E-2</v>
       </c>
@@ -54133,7 +54150,7 @@
         <v>-5.0029999999999996E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="42">
         <v>-9.2250000000000006E-3</v>
       </c>
@@ -54252,7 +54269,7 @@
         <v>-4.4419999999999998E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="42">
         <v>-8.2730000000000008E-3</v>
       </c>
@@ -54371,7 +54388,7 @@
         <v>-4.6759999999999996E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="42">
         <v>-7.4219999999999998E-3</v>
       </c>
@@ -54490,7 +54507,7 @@
         <v>-4.1700000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="42">
         <v>-6.3029999999999996E-3</v>
       </c>
@@ -54609,7 +54626,7 @@
         <v>-4.1799999999999997E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="42">
         <v>-5.4850000000000003E-3</v>
       </c>
@@ -54728,7 +54745,7 @@
         <v>-4.326E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="42">
         <v>-4.3680000000000004E-3</v>
       </c>
@@ -54847,7 +54864,7 @@
         <v>-4.0150000000000003E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="42">
         <v>-3.568E-3</v>
       </c>
@@ -54966,7 +54983,7 @@
         <v>-4.2550000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="42">
         <v>-2.882E-3</v>
       </c>
@@ -55085,7 +55102,7 @@
         <v>-4.1640000000000002E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" s="42">
         <v>-1.92E-3</v>
       </c>
@@ -55204,7 +55221,7 @@
         <v>-3.9529999999999999E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="42">
         <v>-1.407E-3</v>
       </c>
@@ -55323,7 +55340,7 @@
         <v>-4.5319999999999996E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" s="42">
         <v>-5.2700000000000002E-4</v>
       </c>
@@ -55442,7 +55459,7 @@
         <v>-4.0590000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" s="42">
         <v>-2.42E-4</v>
       </c>
@@ -55561,7 +55578,7 @@
         <v>-4.3179999999999998E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" s="42">
         <v>5.1E-5</v>
       </c>
@@ -55680,7 +55697,7 @@
         <v>-4.555E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" s="42">
         <v>3.8699999999999997E-4</v>
       </c>
@@ -55799,7 +55816,7 @@
         <v>-4.182E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" s="42">
         <v>2.4699999999999999E-4</v>
       </c>
@@ -55918,7 +55935,7 @@
         <v>-4.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" s="42">
         <v>4.15E-4</v>
       </c>
@@ -56037,7 +56054,7 @@
         <v>-4.4759999999999999E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" s="42">
         <v>4.5600000000000003E-4</v>
       </c>
@@ -56156,7 +56173,7 @@
         <v>-4.3220000000000003E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" s="42">
         <v>4.8000000000000001E-5</v>
       </c>
@@ -56275,7 +56292,7 @@
         <v>-4.731E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" s="42">
         <v>-2.33E-4</v>
       </c>
@@ -56394,7 +56411,7 @@
         <v>-4.3119999999999999E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" s="42">
         <v>-7.9199999999999995E-4</v>
       </c>
@@ -56513,7 +56530,7 @@
         <v>-4.2919999999999998E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" s="42">
         <v>-9.5600000000000004E-4</v>
       </c>
@@ -56632,7 +56649,7 @@
         <v>-4.4900000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" s="42">
         <v>-7.2099999999999996E-4</v>
       </c>
@@ -56751,7 +56768,7 @@
         <v>-4.0610000000000004E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" s="42">
         <v>-1.16E-3</v>
       </c>
@@ -56870,7 +56887,7 @@
         <v>-4.1970000000000002E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" s="42">
         <v>-1.2830000000000001E-3</v>
       </c>
@@ -56989,7 +57006,7 @@
         <v>-4.176E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" s="42">
         <v>-1.356E-3</v>
       </c>
@@ -57108,7 +57125,7 @@
         <v>-3.7720000000000002E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33" s="42">
         <v>-1.624E-3</v>
       </c>
@@ -57227,7 +57244,7 @@
         <v>-4.0099999999999997E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34" s="42">
         <v>-1.609E-3</v>
       </c>
@@ -57346,7 +57363,7 @@
         <v>-3.7420000000000001E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35" s="42">
         <v>-1.8619999999999999E-3</v>
       </c>
@@ -57465,7 +57482,7 @@
         <v>-3.5370000000000002E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A36" s="42">
         <v>-2.0999999999999999E-3</v>
       </c>
@@ -57584,7 +57601,7 @@
         <v>-3.8440000000000002E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37" s="42">
         <v>-2.313E-3</v>
       </c>
@@ -57703,7 +57720,7 @@
         <v>-3.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38" s="42">
         <v>-2.614E-3</v>
       </c>
@@ -57822,7 +57839,7 @@
         <v>-3.5349999999999999E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A39" s="42">
         <v>-2.617E-3</v>
       </c>
@@ -57941,7 +57958,7 @@
         <v>-3.6519999999999999E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A40" s="42">
         <v>-3.0240000000000002E-3</v>
       </c>
@@ -58060,7 +58077,7 @@
         <v>-3.339E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A41" s="42">
         <v>-3.0430000000000001E-3</v>
       </c>
@@ -58179,7 +58196,7 @@
         <v>-3.4199999999999999E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A42" s="42">
         <v>-2.8040000000000001E-3</v>
       </c>
@@ -58298,7 +58315,7 @@
         <v>-3.356E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A43" s="42">
         <v>-2.9789999999999999E-3</v>
       </c>
@@ -58417,7 +58434,7 @@
         <v>-3.1159999999999998E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A44" s="42">
         <v>-3.117E-3</v>
       </c>
@@ -58536,7 +58553,7 @@
         <v>-3.1700000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A45" s="42">
         <v>-2.3089999999999999E-3</v>
       </c>
@@ -58655,7 +58672,7 @@
         <v>-2.7490000000000001E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A46" s="42">
         <v>-2.166E-3</v>
       </c>
@@ -58774,7 +58791,7 @@
         <v>-2.836E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A47" s="42">
         <v>-1.933E-3</v>
       </c>
@@ -58893,7 +58910,7 @@
         <v>-2.8E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A48" s="42">
         <v>-1.915E-3</v>
       </c>
@@ -59012,7 +59029,7 @@
         <v>-2.7829999999999999E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A49" s="42">
         <v>-1.9059999999999999E-3</v>
       </c>
@@ -59131,7 +59148,7 @@
         <v>-2.7339999999999999E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A50" s="42">
         <v>-1.807E-3</v>
       </c>
@@ -59250,7 +59267,7 @@
         <v>-2.6090000000000002E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A51" s="42">
         <v>-1.928E-3</v>
       </c>
@@ -59369,7 +59386,7 @@
         <v>-2.5760000000000002E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A52" s="42">
         <v>-1.7060000000000001E-3</v>
       </c>
@@ -59488,7 +59505,7 @@
         <v>-2.2959999999999999E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A53" s="42">
         <v>-1.58E-3</v>
       </c>
@@ -59607,7 +59624,7 @@
         <v>-2.209E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A54" s="42">
         <v>-1.4970000000000001E-3</v>
       </c>
@@ -59726,7 +59743,7 @@
         <v>-2.0820000000000001E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A55" s="42">
         <v>-1.3290000000000001E-3</v>
       </c>
@@ -59845,7 +59862,7 @@
         <v>-1.9840000000000001E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A56" s="42">
         <v>-9.990000000000001E-4</v>
       </c>
@@ -59964,7 +59981,7 @@
         <v>-1.8090000000000001E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A57" s="42">
         <v>-8.8900000000000003E-4</v>
       </c>
@@ -60083,7 +60100,7 @@
         <v>-1.609E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A58" s="42">
         <v>-7.6300000000000001E-4</v>
       </c>
@@ -60202,7 +60219,7 @@
         <v>-1.5219999999999999E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A59" s="42">
         <v>-5.1400000000000003E-4</v>
       </c>
@@ -60321,7 +60338,7 @@
         <v>-1.3519999999999999E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A60" s="42">
         <v>-2.81E-4</v>
       </c>
@@ -60440,7 +60457,7 @@
         <v>-1.2390000000000001E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A61" s="42">
         <v>-1.2E-5</v>
       </c>
@@ -60559,7 +60576,7 @@
         <v>-1.1509999999999999E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A62" s="42">
         <v>2.34E-4</v>
       </c>
@@ -60678,7 +60695,7 @@
         <v>-9.2599999999999996E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A63" s="42">
         <v>3.0499999999999999E-4</v>
       </c>
@@ -60797,7 +60814,7 @@
         <v>-8.3199999999999995E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A64" s="42">
         <v>5.4299999999999997E-4</v>
       </c>
@@ -60916,7 +60933,7 @@
         <v>-6.78E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A65" s="42">
         <v>8.3000000000000001E-4</v>
       </c>
@@ -61035,7 +61052,7 @@
         <v>-4.9700000000000005E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A66" s="42">
         <v>9.1799999999999998E-4</v>
       </c>
@@ -61154,7 +61171,7 @@
         <v>-4.95E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A67" s="42">
         <v>1.0020000000000001E-3</v>
       </c>
@@ -61273,7 +61290,7 @@
         <v>-2.6699999999999998E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A68" s="42">
         <v>1.4369999999999999E-3</v>
       </c>
@@ -61392,7 +61409,7 @@
         <v>-6.3999999999999997E-5</v>
       </c>
     </row>
-    <row r="69" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A69" s="42">
         <v>1.475E-3</v>
       </c>
@@ -61511,7 +61528,7 @@
         <v>-1.1900000000000001E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A70" s="42">
         <v>1.6980000000000001E-3</v>
       </c>
@@ -61630,7 +61647,7 @@
         <v>1.45E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A71" s="42">
         <v>1.701E-3</v>
       </c>
@@ -61749,7 +61766,7 @@
         <v>8.7999999999999998E-5</v>
       </c>
     </row>
-    <row r="72" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A72" s="42">
         <v>1.8140000000000001E-3</v>
       </c>
@@ -61868,7 +61885,7 @@
         <v>8.6000000000000003E-5</v>
       </c>
     </row>
-    <row r="73" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A73" s="42">
         <v>2.0089999999999999E-3</v>
       </c>
@@ -61987,7 +62004,7 @@
         <v>3.2400000000000001E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A74" s="42">
         <v>1.7520000000000001E-3</v>
       </c>
@@ -62106,7 +62123,7 @@
         <v>1.03E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A75" s="42">
         <v>1.9109999999999999E-3</v>
       </c>
@@ -62225,7 +62242,7 @@
         <v>1.8100000000000001E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A76" s="42">
         <v>2.3600000000000001E-3</v>
       </c>
@@ -62344,7 +62361,7 @@
         <v>2.7799999999999998E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A77" s="42">
         <v>2.954E-3</v>
       </c>
@@ -62463,7 +62480,7 @@
         <v>-5.5000000000000002E-5</v>
       </c>
     </row>
-    <row r="78" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A78" s="42">
         <v>3.614E-3</v>
       </c>
@@ -62582,7 +62599,7 @@
         <v>1.7799999999999999E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A79" s="42">
         <v>3.4299999999999999E-3</v>
       </c>
@@ -62701,7 +62718,7 @@
         <v>6.8999999999999997E-5</v>
       </c>
     </row>
-    <row r="80" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A80" s="42">
         <v>3.5969999999999999E-3</v>
       </c>
@@ -62820,7 +62837,7 @@
         <v>1.2999999999999999E-5</v>
       </c>
     </row>
-    <row r="81" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A81" s="42">
         <v>4.1399999999999996E-3</v>
       </c>
@@ -62939,7 +62956,7 @@
         <v>1.2400000000000001E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A82" s="42">
         <v>4.2360000000000002E-3</v>
       </c>
@@ -63058,7 +63075,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="83" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A83" s="42">
         <v>4.0670000000000003E-3</v>
       </c>
@@ -63193,12 +63210,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="42"/>
+    <col min="1" max="16384" width="8.85546875" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="42">
         <v>-0.109416</v>
       </c>
@@ -63314,7 +63331,7 @@
         <v>5.2016E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="42">
         <v>-9.2915999999999999E-2</v>
       </c>
@@ -63430,7 +63447,7 @@
         <v>3.9732000000000003E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="42">
         <v>-7.4315999999999993E-2</v>
       </c>
@@ -63546,7 +63563,7 @@
         <v>2.8951999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="42">
         <v>-6.0026000000000003E-2</v>
       </c>
@@ -63662,7 +63679,7 @@
         <v>1.9123999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="42">
         <v>-4.8659000000000001E-2</v>
       </c>
@@ -63778,7 +63795,7 @@
         <v>1.2511E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="42">
         <v>-4.0946000000000003E-2</v>
       </c>
@@ -63894,7 +63911,7 @@
         <v>7.8519999999999996E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="42">
         <v>-3.5154999999999999E-2</v>
       </c>
@@ -64010,7 +64027,7 @@
         <v>4.9240000000000004E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="42">
         <v>-3.1331999999999999E-2</v>
       </c>
@@ -64126,7 +64143,7 @@
         <v>2.9480000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="42">
         <v>-2.8327999999999999E-2</v>
       </c>
@@ -64242,7 +64259,7 @@
         <v>1.5430000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" s="42">
         <v>-2.4981E-2</v>
       </c>
@@ -64358,7 +64375,7 @@
         <v>2.81E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="42">
         <v>-2.2988000000000001E-2</v>
       </c>
@@ -64474,7 +64491,7 @@
         <v>-8.7200000000000005E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" s="42">
         <v>-2.0725E-2</v>
       </c>
@@ -64590,7 +64607,7 @@
         <v>-1.5399999999999999E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" s="42">
         <v>-1.8735999999999999E-2</v>
       </c>
@@ -64706,7 +64723,7 @@
         <v>-2.1789999999999999E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" s="42">
         <v>-1.6792000000000001E-2</v>
       </c>
@@ -64822,7 +64839,7 @@
         <v>-2.7889999999999998E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="42">
         <v>-1.5217E-2</v>
       </c>
@@ -64938,7 +64955,7 @@
         <v>-3.1080000000000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="42">
         <v>-1.3467E-2</v>
       </c>
@@ -65054,7 +65071,7 @@
         <v>-3.5869999999999999E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" s="42">
         <v>-1.1993999999999999E-2</v>
       </c>
@@ -65170,7 +65187,7 @@
         <v>-3.8379999999999998E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" s="42">
         <v>-1.0652E-2</v>
       </c>
@@ -65286,7 +65303,7 @@
         <v>-3.9680000000000002E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19" s="42">
         <v>-9.6010000000000002E-3</v>
       </c>
@@ -65402,7 +65419,7 @@
         <v>-4.2690000000000002E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" s="42">
         <v>-8.4869999999999998E-3</v>
       </c>
@@ -65518,7 +65535,7 @@
         <v>-4.3039999999999997E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" s="42">
         <v>-7.3689999999999997E-3</v>
       </c>
@@ -65634,7 +65651,7 @@
         <v>-4.3309999999999998E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" s="42">
         <v>-6.4819999999999999E-3</v>
       </c>
@@ -65750,7 +65767,7 @@
         <v>-4.3769999999999998E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" s="42">
         <v>-5.8310000000000002E-3</v>
       </c>
@@ -65866,7 +65883,7 @@
         <v>-4.3499999999999997E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" s="42">
         <v>-4.888E-3</v>
       </c>
@@ -65982,7 +65999,7 @@
         <v>-4.2399999999999998E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25" s="42">
         <v>-4.2119999999999996E-3</v>
       </c>
@@ -66098,7 +66115,7 @@
         <v>-4.1089999999999998E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26" s="42">
         <v>-3.6110000000000001E-3</v>
       </c>
@@ -66214,7 +66231,7 @@
         <v>-3.9420000000000002E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27" s="42">
         <v>-3.101E-3</v>
       </c>
@@ -66330,7 +66347,7 @@
         <v>-3.784E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28" s="42">
         <v>-2.6059999999999998E-3</v>
       </c>
@@ -66446,7 +66463,7 @@
         <v>-3.4940000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29" s="42">
         <v>-1.9580000000000001E-3</v>
       </c>
@@ -66562,7 +66579,7 @@
         <v>-3.225E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30" s="42">
         <v>-1.547E-3</v>
       </c>
@@ -66678,7 +66695,7 @@
         <v>-2.813E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31" s="42">
         <v>-1.1150000000000001E-3</v>
       </c>
@@ -66794,7 +66811,7 @@
         <v>-2.467E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32" s="42">
         <v>-8.6899999999999998E-4</v>
       </c>
@@ -66910,7 +66927,7 @@
         <v>-2.134E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A33" s="42">
         <v>-5.8299999999999997E-4</v>
       </c>
@@ -67026,7 +67043,7 @@
         <v>-1.7290000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A34" s="42">
         <v>-7.9900000000000001E-4</v>
       </c>
@@ -67142,7 +67159,7 @@
         <v>-1.451E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A35" s="42">
         <v>-1.036E-3</v>
       </c>
@@ -67258,7 +67275,7 @@
         <v>-1.1670000000000001E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A36" s="42">
         <v>-9.8900000000000008E-4</v>
       </c>
@@ -67374,7 +67391,7 @@
         <v>-8.9700000000000001E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A37" s="42">
         <v>-1.085E-3</v>
       </c>
@@ -67490,7 +67507,7 @@
         <v>-7.7999999999999999E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A38" s="42">
         <v>-6.9999999999999999E-4</v>
       </c>
@@ -67606,7 +67623,7 @@
         <v>-6.5700000000000003E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A39" s="42">
         <v>-3.57E-4</v>
       </c>
@@ -67722,7 +67739,7 @@
         <v>-5.8100000000000003E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A40" s="42">
         <v>-4.1E-5</v>
       </c>
@@ -67838,7 +67855,7 @@
         <v>-5.9400000000000002E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A41" s="42">
         <v>4.26E-4</v>
       </c>
@@ -67954,7 +67971,7 @@
         <v>-5.9699999999999998E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A42" s="42">
         <v>1.3029999999999999E-3</v>
       </c>
@@ -68070,7 +68087,7 @@
         <v>-2.3900000000000002E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A43" s="42">
         <v>1.157E-3</v>
       </c>
@@ -68186,7 +68203,7 @@
         <v>-2.4989999999999999E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A44" s="42">
         <v>9.6900000000000003E-4</v>
       </c>
@@ -68302,7 +68319,7 @@
         <v>-2.6150000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A45" s="42">
         <v>8.5099999999999998E-4</v>
       </c>
@@ -68418,7 +68435,7 @@
         <v>-2.7049999999999999E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A46" s="42">
         <v>4.9100000000000001E-4</v>
       </c>
@@ -68534,7 +68551,7 @@
         <v>-2.794E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A47" s="42">
         <v>4.8200000000000001E-4</v>
       </c>
@@ -68650,7 +68667,7 @@
         <v>-2.8189999999999999E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A48" s="42">
         <v>3.6000000000000002E-4</v>
       </c>
@@ -68766,7 +68783,7 @@
         <v>-2.8279999999999998E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A49" s="42">
         <v>3.3E-4</v>
       </c>
@@ -68882,7 +68899,7 @@
         <v>-2.7859999999999998E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A50" s="42">
         <v>3.8299999999999999E-4</v>
       </c>
@@ -68998,7 +69015,7 @@
         <v>-2.7590000000000002E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A51" s="42">
         <v>3.9800000000000002E-4</v>
       </c>
@@ -69114,7 +69131,7 @@
         <v>-2.6580000000000002E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A52" s="42">
         <v>2.9799999999999998E-4</v>
       </c>
@@ -69230,7 +69247,7 @@
         <v>-2.5300000000000001E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A53" s="42">
         <v>3.86E-4</v>
       </c>
@@ -69346,7 +69363,7 @@
         <v>-2.3869999999999998E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A54" s="42">
         <v>4.2999999999999999E-4</v>
       </c>
@@ -69462,7 +69479,7 @@
         <v>-2.2260000000000001E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A55" s="42">
         <v>4.0999999999999999E-4</v>
       </c>
@@ -69578,7 +69595,7 @@
         <v>-2.075E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A56" s="42">
         <v>4.0200000000000001E-4</v>
       </c>
@@ -69694,7 +69711,7 @@
         <v>-1.8979999999999999E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A57" s="42">
         <v>3.5300000000000002E-4</v>
       </c>
@@ -69810,7 +69827,7 @@
         <v>-1.7229999999999999E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A58" s="42">
         <v>1.3300000000000001E-4</v>
       </c>
@@ -69926,7 +69943,7 @@
         <v>-1.562E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A59" s="42">
         <v>1.85E-4</v>
       </c>
@@ -70042,7 +70059,7 @@
         <v>-1.3849999999999999E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A60" s="42">
         <v>2.31E-4</v>
       </c>
@@ -70158,7 +70175,7 @@
         <v>-1.2340000000000001E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A61" s="42">
         <v>3.6099999999999999E-4</v>
       </c>
@@ -70274,7 +70291,7 @@
         <v>-1.0560000000000001E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A62" s="42">
         <v>2.9700000000000001E-4</v>
       </c>
@@ -70390,7 +70407,7 @@
         <v>-9.2400000000000002E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A63" s="42">
         <v>4.1599999999999997E-4</v>
       </c>
@@ -70506,7 +70523,7 @@
         <v>-7.6400000000000003E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A64" s="42">
         <v>3.9300000000000001E-4</v>
       </c>
@@ -70622,7 +70639,7 @@
         <v>-5.9699999999999998E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A65" s="42">
         <v>3.5500000000000001E-4</v>
       </c>
@@ -70738,7 +70755,7 @@
         <v>-3.9500000000000001E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A66" s="42">
         <v>2.1000000000000001E-4</v>
       </c>
@@ -70854,7 +70871,7 @@
         <v>-2.8899999999999998E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A67" s="42">
         <v>2.2000000000000001E-4</v>
       </c>
@@ -70970,7 +70987,7 @@
         <v>-8.7999999999999998E-5</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A68" s="42">
         <v>4.0299999999999998E-4</v>
       </c>
@@ -71086,7 +71103,7 @@
         <v>-2.5000000000000001E-5</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A69" s="42">
         <v>4.35E-4</v>
       </c>
@@ -71202,7 +71219,7 @@
         <v>7.7999999999999999E-5</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A70" s="42">
         <v>4.2999999999999999E-4</v>
       </c>
@@ -71318,7 +71335,7 @@
         <v>1.45E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A71" s="42">
         <v>4.7199999999999998E-4</v>
       </c>
@@ -71434,7 +71451,7 @@
         <v>2.3699999999999999E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A72" s="42">
         <v>7.8399999999999997E-4</v>
       </c>
@@ -71550,7 +71567,7 @@
         <v>4.15E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A73" s="42">
         <v>5.9599999999999996E-4</v>
       </c>
@@ -71666,7 +71683,7 @@
         <v>5.0699999999999996E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A74" s="42">
         <v>2.5300000000000002E-4</v>
       </c>
@@ -71782,7 +71799,7 @@
         <v>5.5699999999999999E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A75" s="42">
         <v>2.3E-5</v>
       </c>
@@ -71898,7 +71915,7 @@
         <v>6.0599999999999998E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A76" s="42">
         <v>-2.22E-4</v>
       </c>
@@ -72014,7 +72031,7 @@
         <v>6.5300000000000004E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A77" s="42">
         <v>-3.0600000000000001E-4</v>
       </c>
@@ -72130,7 +72147,7 @@
         <v>6.29E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A78" s="42">
         <v>-3.01E-4</v>
       </c>
@@ -72246,7 +72263,7 @@
         <v>6.4899999999999995E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A79" s="42">
         <v>-6.2100000000000002E-4</v>
       </c>
@@ -72362,7 +72379,7 @@
         <v>5.9599999999999996E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A80" s="42">
         <v>-2.7500000000000002E-4</v>
       </c>
@@ -72494,12 +72511,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="42"/>
+    <col min="1" max="16384" width="8.85546875" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="42">
         <v>-1.8799999999999999E-4</v>
       </c>
@@ -72615,7 +72632,7 @@
         <v>-1.4964999999999999E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" s="42">
         <v>2.3210000000000001E-3</v>
       </c>
@@ -72731,7 +72748,7 @@
         <v>-1.0926999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="42">
         <v>-5.1960000000000001E-3</v>
       </c>
@@ -72847,7 +72864,7 @@
         <v>-9.7809999999999998E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="42">
         <v>-9.4160000000000008E-3</v>
       </c>
@@ -72963,7 +72980,7 @@
         <v>-7.2550000000000002E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="42">
         <v>-8.4010000000000005E-3</v>
       </c>
@@ -73079,7 +73096,7 @@
         <v>-6.6360000000000004E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="42">
         <v>-1.1429E-2</v>
       </c>
@@ -73195,7 +73212,7 @@
         <v>-4.6860000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="42">
         <v>-1.273E-2</v>
       </c>
@@ -73311,7 +73328,7 @@
         <v>-4.0369999999999998E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="42">
         <v>-1.4896E-2</v>
       </c>
@@ -73427,7 +73444,7 @@
         <v>-2.9129999999999998E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="42">
         <v>-1.5589E-2</v>
       </c>
@@ -73543,7 +73560,7 @@
         <v>-2.0560000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" s="42">
         <v>-1.6633999999999999E-2</v>
       </c>
@@ -73659,7 +73676,7 @@
         <v>-9.41E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="42">
         <v>-1.8329000000000002E-2</v>
       </c>
@@ -73775,7 +73792,7 @@
         <v>-1.2329999999999999E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" s="42">
         <v>-1.7891000000000001E-2</v>
       </c>
@@ -73891,7 +73908,7 @@
         <v>-6.29E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" s="42">
         <v>-1.839E-2</v>
       </c>
@@ -74007,7 +74024,7 @@
         <v>-1.4200000000000001E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" s="42">
         <v>-1.9127000000000002E-2</v>
       </c>
@@ -74123,7 +74140,7 @@
         <v>-9.5000000000000005E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="42">
         <v>-1.8342000000000001E-2</v>
       </c>
@@ -74239,7 +74256,7 @@
         <v>3.4000000000000002E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="42">
         <v>-1.9342999999999999E-2</v>
       </c>
@@ -74355,7 +74372,7 @@
         <v>1.65E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" s="42">
         <v>-1.8837E-2</v>
       </c>
@@ -74471,7 +74488,7 @@
         <v>3.6699999999999998E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" s="42">
         <v>-1.8706E-2</v>
       </c>
@@ -74587,7 +74604,7 @@
         <v>6.2100000000000002E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19" s="42">
         <v>-1.8592000000000001E-2</v>
       </c>
@@ -74703,7 +74720,7 @@
         <v>6.0999999999999997E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" s="42">
         <v>-1.8738999999999999E-2</v>
       </c>
@@ -74819,7 +74836,7 @@
         <v>3.8000000000000002E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" s="42">
         <v>-1.7999999999999999E-2</v>
       </c>
@@ -74935,7 +74952,7 @@
         <v>7.27E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" s="42">
         <v>-1.8481000000000001E-2</v>
       </c>
@@ -75051,7 +75068,7 @@
         <v>5.3300000000000005E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" s="42">
         <v>-1.8211000000000001E-2</v>
       </c>
@@ -75167,7 +75184,7 @@
         <v>6.5700000000000003E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" s="42">
         <v>-1.796E-2</v>
       </c>
@@ -75283,7 +75300,7 @@
         <v>6.5700000000000003E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25" s="42">
         <v>-1.7760999999999999E-2</v>
       </c>
@@ -75399,7 +75416,7 @@
         <v>5.7899999999999998E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26" s="42">
         <v>-1.7401E-2</v>
       </c>
@@ -75515,7 +75532,7 @@
         <v>6.3500000000000004E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27" s="42">
         <v>-1.7576999999999999E-2</v>
       </c>
@@ -75631,7 +75648,7 @@
         <v>4.8799999999999999E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28" s="42">
         <v>-1.6931999999999999E-2</v>
       </c>
@@ -75747,7 +75764,7 @@
         <v>5.3600000000000002E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29" s="42">
         <v>-1.6695000000000002E-2</v>
       </c>
@@ -75863,7 +75880,7 @@
         <v>4.4499999999999997E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30" s="42">
         <v>-1.6258999999999999E-2</v>
       </c>
@@ -75979,7 +75996,7 @@
         <v>4.3300000000000001E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31" s="42">
         <v>-1.6271000000000001E-2</v>
       </c>
@@ -76095,7 +76112,7 @@
         <v>3.1300000000000002E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32" s="42">
         <v>-1.5495E-2</v>
       </c>
@@ -76211,7 +76228,7 @@
         <v>3.1100000000000002E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A33" s="42">
         <v>-1.5363999999999999E-2</v>
       </c>
@@ -76327,7 +76344,7 @@
         <v>2.32E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A34" s="42">
         <v>-1.4798E-2</v>
       </c>
@@ -76443,7 +76460,7 @@
         <v>3.8000000000000002E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A35" s="42">
         <v>-1.4511E-2</v>
       </c>
@@ -76559,7 +76576,7 @@
         <v>3.4099999999999999E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A36" s="42">
         <v>-1.4328E-2</v>
       </c>
@@ -76675,7 +76692,7 @@
         <v>4.0299999999999998E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A37" s="42">
         <v>-1.404E-2</v>
       </c>
@@ -76791,7 +76808,7 @@
         <v>4.0700000000000003E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A38" s="42">
         <v>-1.4097999999999999E-2</v>
       </c>
@@ -76907,7 +76924,7 @@
         <v>5.0699999999999996E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A39" s="42">
         <v>-1.4057E-2</v>
       </c>
@@ -77023,7 +77040,7 @@
         <v>5.4799999999999998E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A40" s="42">
         <v>-1.3736999999999999E-2</v>
       </c>
@@ -77139,7 +77156,7 @@
         <v>6.5700000000000003E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A41" s="42">
         <v>-1.3611E-2</v>
       </c>
@@ -77255,7 +77272,7 @@
         <v>6.7100000000000005E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A42" s="42">
         <v>-1.4662E-2</v>
       </c>
@@ -77371,7 +77388,7 @@
         <v>1.872E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A43" s="42">
         <v>-1.4466E-2</v>
       </c>
@@ -77487,7 +77504,7 @@
         <v>1.9530000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A44" s="42">
         <v>-1.4425E-2</v>
       </c>
@@ -77603,7 +77620,7 @@
         <v>1.926E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A45" s="42">
         <v>-1.3972999999999999E-2</v>
       </c>
@@ -77719,7 +77736,7 @@
         <v>1.936E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A46" s="42">
         <v>-1.3828E-2</v>
       </c>
@@ -77835,7 +77852,7 @@
         <v>1.946E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A47" s="42">
         <v>-1.3573999999999999E-2</v>
       </c>
@@ -77951,7 +77968,7 @@
         <v>1.8420000000000001E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A48" s="42">
         <v>-1.3329000000000001E-2</v>
       </c>
@@ -78067,7 +78084,7 @@
         <v>1.853E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A49" s="42">
         <v>-1.3155E-2</v>
       </c>
@@ -78183,7 +78200,7 @@
         <v>1.7489999999999999E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A50" s="42">
         <v>-1.3275E-2</v>
       </c>
@@ -78299,7 +78316,7 @@
         <v>1.619E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A51" s="42">
         <v>-1.3044999999999999E-2</v>
       </c>
@@ -78415,7 +78432,7 @@
         <v>1.5430000000000001E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A52" s="42">
         <v>-1.3056999999999999E-2</v>
       </c>
@@ -78531,7 +78548,7 @@
         <v>1.4170000000000001E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A53" s="42">
         <v>-1.2808999999999999E-2</v>
       </c>
@@ -78647,7 +78664,7 @@
         <v>1.325E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A54" s="42">
         <v>-1.2736000000000001E-2</v>
       </c>
@@ -78763,7 +78780,7 @@
         <v>1.111E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A55" s="42">
         <v>-1.2442E-2</v>
       </c>
@@ -78879,7 +78896,7 @@
         <v>9.6299999999999999E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A56" s="42">
         <v>-1.2503E-2</v>
       </c>
@@ -78995,7 +79012,7 @@
         <v>8.2200000000000003E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A57" s="42">
         <v>-1.2456999999999999E-2</v>
       </c>
@@ -79111,7 +79128,7 @@
         <v>6.8099999999999996E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A58" s="42">
         <v>-1.2348E-2</v>
       </c>
@@ -79227,7 +79244,7 @@
         <v>5.9599999999999996E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A59" s="42">
         <v>-1.2356000000000001E-2</v>
       </c>
@@ -79343,7 +79360,7 @@
         <v>4.8799999999999999E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A60" s="42">
         <v>-1.2666E-2</v>
       </c>
@@ -79459,7 +79476,7 @@
         <v>3.6000000000000002E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A61" s="42">
         <v>-1.2446E-2</v>
       </c>
@@ -79575,7 +79592,7 @@
         <v>3.3300000000000002E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A62" s="42">
         <v>-1.2429000000000001E-2</v>
       </c>
@@ -79691,7 +79708,7 @@
         <v>2.7E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A63" s="42">
         <v>-1.2241E-2</v>
       </c>
@@ -79807,7 +79824,7 @@
         <v>3.2499999999999999E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A64" s="42">
         <v>-1.2192E-2</v>
       </c>
@@ -79923,7 +79940,7 @@
         <v>3.3300000000000002E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A65" s="42">
         <v>-1.2024E-2</v>
       </c>
@@ -80039,7 +80056,7 @@
         <v>2.34E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A66" s="42">
         <v>-1.1712E-2</v>
       </c>
@@ -80155,7 +80172,7 @@
         <v>3.1799999999999998E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A67" s="42">
         <v>-1.1445E-2</v>
       </c>
@@ -80271,7 +80288,7 @@
         <v>3.4299999999999999E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A68" s="42">
         <v>-1.0829999999999999E-2</v>
       </c>
@@ -80387,7 +80404,7 @@
         <v>3.9899999999999999E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A69" s="42">
         <v>-1.0755000000000001E-2</v>
       </c>
@@ -80503,7 +80520,7 @@
         <v>3.9599999999999998E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A70" s="42">
         <v>-1.0411E-2</v>
       </c>
@@ -80619,7 +80636,7 @@
         <v>3.5300000000000002E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A71" s="42">
         <v>-1.0499E-2</v>
       </c>
@@ -80735,7 +80752,7 @@
         <v>3.8400000000000001E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A72" s="42">
         <v>-9.9609999999999994E-3</v>
       </c>
@@ -80851,7 +80868,7 @@
         <v>3.8299999999999999E-4</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A73" s="42">
         <v>-9.554E-3</v>
       </c>
@@ -80967,7 +80984,7 @@
         <v>4.7199999999999998E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A74" s="42">
         <v>-9.5350000000000001E-3</v>
       </c>
@@ -81083,7 +81100,7 @@
         <v>4.75E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A75" s="42">
         <v>-9.3430000000000006E-3</v>
       </c>
@@ -81199,7 +81216,7 @@
         <v>4.6500000000000003E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A76" s="42">
         <v>-9.3369999999999998E-3</v>
       </c>
@@ -81315,7 +81332,7 @@
         <v>4.7399999999999997E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A77" s="42">
         <v>-9.1559999999999992E-3</v>
       </c>
@@ -81431,7 +81448,7 @@
         <v>5.31E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A78" s="42">
         <v>-9.4289999999999999E-3</v>
       </c>
@@ -81547,7 +81564,7 @@
         <v>5.1400000000000003E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A79" s="42">
         <v>-9.6100000000000005E-3</v>
       </c>
@@ -81663,7 +81680,7 @@
         <v>5.3899999999999998E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A80" s="42">
         <v>-1.7344999999999999E-2</v>
       </c>

--- a/deployment/Omaha_Cal_Info_CE01ISSM_00003.xlsx
+++ b/deployment/Omaha_Cal_Info_CE01ISSM_00003.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="27435" yWindow="585" windowWidth="29040" windowHeight="16440" tabRatio="759" activeTab="1"/>
+    <workbookView xWindow="27435" yWindow="585" windowWidth="29040" windowHeight="16440" tabRatio="759"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="ACS149_CC_taarray" sheetId="5" r:id="rId5"/>
     <sheet name="ACS149_CC_tcarray" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1929,7 +1929,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML5"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2050,10 +2050,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMM189"/>
+  <dimension ref="A1:AMM190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F192" sqref="F192"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2139,11 +2139,10 @@
       <c r="I3" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
-      <c r="N3"/>
+      <c r="N3" s="10"/>
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
@@ -3167,11 +3166,11 @@
       <c r="G4" s="10"/>
       <c r="H4" s="24"/>
       <c r="I4"/>
-      <c r="J4"/>
+      <c r="J4" s="10"/>
       <c r="K4"/>
       <c r="L4"/>
       <c r="M4"/>
-      <c r="N4"/>
+      <c r="N4" s="10"/>
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4"/>
@@ -4211,11 +4210,11 @@
         <v>44.6584</v>
       </c>
       <c r="I5"/>
-      <c r="J5"/>
+      <c r="J5" s="10"/>
       <c r="K5"/>
       <c r="L5"/>
       <c r="M5"/>
-      <c r="N5"/>
+      <c r="N5" s="10"/>
       <c r="O5"/>
       <c r="P5"/>
       <c r="Q5"/>
@@ -5255,11 +5254,11 @@
         <v>-124.09538000000001</v>
       </c>
       <c r="I6"/>
-      <c r="J6"/>
+      <c r="J6" s="10"/>
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6"/>
-      <c r="N6"/>
+      <c r="N6" s="10"/>
       <c r="O6"/>
       <c r="P6"/>
       <c r="Q6"/>
@@ -6283,11 +6282,11 @@
       <c r="G7" s="10"/>
       <c r="H7" s="34"/>
       <c r="I7"/>
-      <c r="J7"/>
+      <c r="J7" s="10"/>
       <c r="K7"/>
       <c r="L7"/>
       <c r="M7"/>
-      <c r="N7"/>
+      <c r="N7" s="10"/>
       <c r="O7"/>
       <c r="P7"/>
       <c r="Q7"/>
@@ -7326,7 +7325,8 @@
       <c r="H8" s="40">
         <v>44.6584</v>
       </c>
-      <c r="J8"/>
+      <c r="J8" s="10"/>
+      <c r="N8" s="10"/>
     </row>
     <row r="9" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
@@ -7353,7 +7353,8 @@
       <c r="H9" s="40">
         <v>-124.09538000000001</v>
       </c>
-      <c r="J9"/>
+      <c r="J9" s="10"/>
+      <c r="N9" s="10"/>
     </row>
     <row r="10" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
@@ -7381,7 +7382,9 @@
         <v>1.2363459999999999E-3</v>
       </c>
       <c r="I10"/>
+      <c r="J10" s="10"/>
       <c r="K10" s="41"/>
+      <c r="N10" s="10"/>
     </row>
     <row r="11" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
@@ -7409,7 +7412,9 @@
         <v>2.7762039999999999E-4</v>
       </c>
       <c r="I11"/>
+      <c r="J11" s="10"/>
       <c r="K11" s="41"/>
+      <c r="N11" s="10"/>
     </row>
     <row r="12" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
@@ -7437,7 +7442,9 @@
         <v>-1.251654E-6</v>
       </c>
       <c r="I12"/>
+      <c r="J12" s="10"/>
       <c r="K12" s="41"/>
+      <c r="N12" s="10"/>
     </row>
     <row r="13" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
@@ -7465,7 +7472,9 @@
         <v>1.8859919999999999E-7</v>
       </c>
       <c r="I13"/>
+      <c r="J13" s="10"/>
       <c r="K13" s="41"/>
+      <c r="N13" s="10"/>
     </row>
     <row r="14" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
@@ -7493,7 +7502,9 @@
         <v>-64.041795899999997</v>
       </c>
       <c r="I14"/>
+      <c r="J14" s="10"/>
       <c r="K14" s="41"/>
+      <c r="N14" s="10"/>
     </row>
     <row r="15" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
@@ -7521,7 +7532,9 @@
         <v>53.763796599999999</v>
       </c>
       <c r="I15"/>
+      <c r="J15" s="10"/>
       <c r="K15" s="41"/>
+      <c r="N15" s="10"/>
     </row>
     <row r="16" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
@@ -7549,9 +7562,11 @@
         <v>-0.54870572399999995</v>
       </c>
       <c r="I16"/>
+      <c r="J16" s="10"/>
       <c r="K16" s="41"/>
+      <c r="N16" s="10"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>53</v>
       </c>
@@ -7577,9 +7592,11 @@
         <v>525624.446</v>
       </c>
       <c r="I17"/>
+      <c r="J17" s="10"/>
       <c r="K17" s="41"/>
+      <c r="N17" s="10"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>53</v>
       </c>
@@ -7605,9 +7622,11 @@
         <v>5.4977469799999996</v>
       </c>
       <c r="I18"/>
+      <c r="J18" s="10"/>
       <c r="K18" s="39"/>
+      <c r="N18" s="10"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>53</v>
       </c>
@@ -7633,9 +7652,11 @@
         <v>8.8390539599999998E-2</v>
       </c>
       <c r="I19"/>
+      <c r="J19" s="10"/>
       <c r="K19" s="39"/>
+      <c r="N19" s="10"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>53</v>
       </c>
@@ -7661,9 +7682,11 @@
         <v>24.856874999999999</v>
       </c>
       <c r="I20"/>
+      <c r="J20" s="10"/>
       <c r="K20" s="39"/>
+      <c r="N20" s="10"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>53</v>
       </c>
@@ -7689,9 +7712,11 @@
         <v>-6.2500000000000001E-4</v>
       </c>
       <c r="I21"/>
+      <c r="J21" s="10"/>
       <c r="K21" s="39"/>
+      <c r="N21" s="10"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>53</v>
       </c>
@@ -7717,9 +7742,11 @@
         <v>0</v>
       </c>
       <c r="I22"/>
+      <c r="J22" s="10"/>
       <c r="K22" s="39"/>
+      <c r="N22" s="10"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>53</v>
       </c>
@@ -7745,9 +7772,11 @@
         <v>8.7328158200000006E-2</v>
       </c>
       <c r="I23"/>
+      <c r="J23" s="10"/>
       <c r="K23" s="39"/>
+      <c r="N23" s="10"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>53</v>
       </c>
@@ -7773,9 +7802,11 @@
         <v>4.9403477600000001E-4</v>
       </c>
       <c r="I24"/>
+      <c r="J24" s="10"/>
       <c r="K24" s="39"/>
+      <c r="N24" s="10"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>53</v>
       </c>
@@ -7801,9 +7832,11 @@
         <v>-9.62249843E-12</v>
       </c>
       <c r="I25"/>
+      <c r="J25" s="10"/>
       <c r="K25" s="39"/>
+      <c r="N25" s="10"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>53</v>
       </c>
@@ -7829,9 +7862,11 @@
         <v>-0.98595580000000005</v>
       </c>
       <c r="I26"/>
+      <c r="J26" s="10"/>
       <c r="K26" s="39"/>
+      <c r="N26" s="10"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>53</v>
       </c>
@@ -7857,9 +7892,11 @@
         <v>0.15596170000000001</v>
       </c>
       <c r="I27"/>
+      <c r="J27" s="10"/>
       <c r="K27" s="39"/>
+      <c r="N27" s="10"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>53</v>
       </c>
@@ -7885,9 +7922,11 @@
         <v>-3.42801E-4</v>
       </c>
       <c r="I28"/>
+      <c r="J28" s="10"/>
       <c r="K28" s="39"/>
+      <c r="N28" s="10"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>53</v>
       </c>
@@ -7913,9 +7952,11 @@
         <v>5.3124210000000003E-5</v>
       </c>
       <c r="I29"/>
+      <c r="J29" s="10"/>
       <c r="K29" s="39"/>
+      <c r="N29" s="10"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>53</v>
       </c>
@@ -7941,9 +7982,11 @@
         <v>-9.5700000000000003E-8</v>
       </c>
       <c r="I30"/>
+      <c r="J30" s="10"/>
       <c r="K30" s="39"/>
+      <c r="N30" s="10"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>53</v>
       </c>
@@ -7969,9 +8012,10 @@
         <v>3.2499999999999998E-6</v>
       </c>
       <c r="I31"/>
+      <c r="J31" s="10"/>
       <c r="K31" s="39"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -7981,6 +8025,7 @@
       <c r="G32" s="10"/>
       <c r="H32" s="34"/>
       <c r="I32"/>
+      <c r="J32" s="10"/>
     </row>
     <row r="33" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
@@ -8008,6 +8053,7 @@
         <v>44.6584</v>
       </c>
       <c r="I33"/>
+      <c r="J33" s="10"/>
     </row>
     <row r="34" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
@@ -8035,6 +8081,7 @@
         <v>-124.09538000000001</v>
       </c>
       <c r="I34"/>
+      <c r="J34" s="10"/>
     </row>
     <row r="35" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
@@ -8062,6 +8109,7 @@
         <v>177</v>
       </c>
       <c r="I35"/>
+      <c r="J35" s="10"/>
       <c r="K35" s="10"/>
       <c r="L35" s="10"/>
       <c r="M35" s="10"/>
@@ -8103,6 +8151,7 @@
       <c r="I36" s="23" t="s">
         <v>155</v>
       </c>
+      <c r="J36" s="10"/>
       <c r="K36" s="10"/>
       <c r="L36" s="10"/>
       <c r="M36" s="10"/>
@@ -9131,6 +9180,7 @@
       <c r="G37" s="10"/>
       <c r="H37" s="24"/>
       <c r="I37"/>
+      <c r="J37" s="10"/>
     </row>
     <row r="38" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
@@ -9158,6 +9208,7 @@
         <v>50</v>
       </c>
       <c r="I38"/>
+      <c r="J38" s="10"/>
     </row>
     <row r="39" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
@@ -9185,6 +9236,7 @@
         <v>1.7940000000000001E-6</v>
       </c>
       <c r="I39"/>
+      <c r="J39" s="10"/>
     </row>
     <row r="40" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
@@ -9212,6 +9264,7 @@
         <v>48</v>
       </c>
       <c r="I40"/>
+      <c r="J40" s="10"/>
     </row>
     <row r="41" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
@@ -9239,6 +9292,7 @@
         <v>1.17E-2</v>
       </c>
       <c r="I41"/>
+      <c r="J41" s="10"/>
     </row>
     <row r="42" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
@@ -9266,6 +9320,7 @@
         <v>44</v>
       </c>
       <c r="I42"/>
+      <c r="J42" s="10"/>
     </row>
     <row r="43" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
@@ -9293,6 +9348,7 @@
         <v>8.5699999999999998E-2</v>
       </c>
       <c r="I43"/>
+      <c r="J43" s="10"/>
     </row>
     <row r="44" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
@@ -9322,6 +9378,7 @@
       <c r="I44" s="10" t="s">
         <v>132</v>
       </c>
+      <c r="J44" s="10"/>
     </row>
     <row r="45" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
@@ -9351,6 +9408,7 @@
       <c r="I45" s="10" t="s">
         <v>30</v>
       </c>
+      <c r="J45" s="10"/>
     </row>
     <row r="46" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
@@ -9380,6 +9438,7 @@
       <c r="I46" s="10" t="s">
         <v>157</v>
       </c>
+      <c r="J46" s="10"/>
     </row>
     <row r="47" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
@@ -9409,6 +9468,7 @@
       <c r="I47" s="10" t="s">
         <v>30</v>
       </c>
+      <c r="J47" s="10"/>
     </row>
     <row r="48" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A48"/>
@@ -9420,6 +9480,7 @@
       <c r="G48" s="10"/>
       <c r="H48" s="34"/>
       <c r="I48"/>
+      <c r="J48" s="10"/>
     </row>
     <row r="49" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
@@ -9449,6 +9510,7 @@
       <c r="I49" s="8" t="s">
         <v>30</v>
       </c>
+      <c r="J49" s="10"/>
       <c r="K49"/>
     </row>
     <row r="50" spans="1:1026" x14ac:dyDescent="0.25">
@@ -9479,6 +9541,7 @@
       <c r="I50" s="8" t="s">
         <v>30</v>
       </c>
+      <c r="J50" s="10"/>
       <c r="K50"/>
     </row>
     <row r="51" spans="1:1026" x14ac:dyDescent="0.25">
@@ -9507,6 +9570,7 @@
         <v>20.07</v>
       </c>
       <c r="I51"/>
+      <c r="J51" s="10"/>
       <c r="K51"/>
     </row>
     <row r="52" spans="1:1026" x14ac:dyDescent="0.25">
@@ -9535,6 +9599,7 @@
         <v>158</v>
       </c>
       <c r="I52"/>
+      <c r="J52" s="10"/>
       <c r="K52"/>
     </row>
     <row r="53" spans="1:1026" x14ac:dyDescent="0.25">
@@ -9563,6 +9628,7 @@
         <v>159</v>
       </c>
       <c r="I53"/>
+      <c r="J53" s="10"/>
       <c r="K53"/>
     </row>
     <row r="54" spans="1:1026" x14ac:dyDescent="0.25">
@@ -9591,6 +9657,7 @@
         <v>160</v>
       </c>
       <c r="I54"/>
+      <c r="J54" s="10"/>
       <c r="K54"/>
     </row>
     <row r="55" spans="1:1026" x14ac:dyDescent="0.25">
@@ -9619,6 +9686,7 @@
         <v>161</v>
       </c>
       <c r="I55"/>
+      <c r="J55" s="10"/>
       <c r="K55"/>
     </row>
     <row r="56" spans="1:1026" x14ac:dyDescent="0.25">
@@ -9631,6 +9699,7 @@
       <c r="G56" s="10"/>
       <c r="H56" s="34"/>
       <c r="I56"/>
+      <c r="J56" s="10"/>
     </row>
     <row r="57" spans="1:1026" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
@@ -9658,6 +9727,7 @@
         <v>162</v>
       </c>
       <c r="I57"/>
+      <c r="J57" s="10"/>
       <c r="K57"/>
       <c r="L57"/>
       <c r="M57"/>
@@ -10701,6 +10771,7 @@
         <v>163</v>
       </c>
       <c r="I58"/>
+      <c r="J58" s="10"/>
       <c r="K58"/>
       <c r="L58"/>
       <c r="M58"/>
@@ -11744,6 +11815,7 @@
         <v>16.399999999999999</v>
       </c>
       <c r="I59"/>
+      <c r="J59" s="10"/>
       <c r="K59"/>
       <c r="L59"/>
       <c r="M59"/>
@@ -12787,6 +12859,7 @@
         <v>164</v>
       </c>
       <c r="I60"/>
+      <c r="J60" s="10"/>
       <c r="K60"/>
       <c r="L60"/>
       <c r="M60"/>
@@ -13830,6 +13903,7 @@
         <v>165</v>
       </c>
       <c r="I61"/>
+      <c r="J61" s="10"/>
       <c r="K61"/>
       <c r="L61"/>
       <c r="M61"/>
@@ -14873,6 +14947,7 @@
         <v>166</v>
       </c>
       <c r="I62"/>
+      <c r="J62" s="10"/>
       <c r="K62"/>
       <c r="L62"/>
       <c r="M62"/>
@@ -15916,6 +15991,7 @@
         <v>142</v>
       </c>
       <c r="I63"/>
+      <c r="J63" s="10"/>
       <c r="K63"/>
       <c r="L63"/>
       <c r="M63"/>
@@ -16958,6 +17034,7 @@
       <c r="H64" s="53" t="s">
         <v>143</v>
       </c>
+      <c r="J64" s="10"/>
     </row>
     <row r="65" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A65"/>
@@ -16969,6 +17046,7 @@
       <c r="G65" s="10"/>
       <c r="H65" s="34"/>
       <c r="I65"/>
+      <c r="J65" s="10"/>
     </row>
     <row r="66" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
@@ -16996,6 +17074,7 @@
         <v>-9.5600000000000004E-2</v>
       </c>
       <c r="I66" s="35"/>
+      <c r="J66" s="10"/>
     </row>
     <row r="67" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
@@ -17023,6 +17102,7 @@
         <v>1.2159</v>
       </c>
       <c r="I67" s="35"/>
+      <c r="J67" s="10"/>
     </row>
     <row r="68" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
@@ -17050,6 +17130,7 @@
         <v>-2.2898999999999998</v>
       </c>
       <c r="I68" s="35"/>
+      <c r="J68" s="10"/>
     </row>
     <row r="69" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
@@ -17077,6 +17158,7 @@
         <v>14.6716</v>
       </c>
       <c r="I69" s="35"/>
+      <c r="J69" s="10"/>
     </row>
     <row r="70" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
@@ -17106,6 +17188,7 @@
       <c r="I70" s="15" t="s">
         <v>133</v>
       </c>
+      <c r="J70" s="10"/>
       <c r="AMM70"/>
     </row>
     <row r="71" spans="1:1027" x14ac:dyDescent="0.25">
@@ -17136,6 +17219,7 @@
       <c r="I71" s="16" t="s">
         <v>134</v>
       </c>
+      <c r="J71" s="10"/>
       <c r="AMM71"/>
     </row>
     <row r="72" spans="1:1027" x14ac:dyDescent="0.25">
@@ -17164,6 +17248,7 @@
         <v>3073</v>
       </c>
       <c r="I72" s="16"/>
+      <c r="J72" s="10"/>
       <c r="AMM72"/>
     </row>
     <row r="73" spans="1:1027" x14ac:dyDescent="0.25">
@@ -17192,6 +17277,7 @@
         <v>44327</v>
       </c>
       <c r="I73" s="17"/>
+      <c r="J73" s="10"/>
       <c r="AMM73"/>
     </row>
     <row r="74" spans="1:1027" x14ac:dyDescent="0.25">
@@ -17204,6 +17290,7 @@
       <c r="G74" s="10"/>
       <c r="H74" s="34"/>
       <c r="I74"/>
+      <c r="J74" s="10"/>
     </row>
     <row r="75" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
@@ -17230,6 +17317,7 @@
       <c r="H75" s="40">
         <v>17533</v>
       </c>
+      <c r="J75" s="10"/>
       <c r="K75"/>
       <c r="L75"/>
       <c r="M75"/>
@@ -18272,6 +18360,7 @@
       <c r="H76" s="40">
         <v>101</v>
       </c>
+      <c r="J76" s="10"/>
       <c r="K76"/>
       <c r="L76"/>
       <c r="M76"/>
@@ -19314,6 +19403,7 @@
       <c r="H77" s="40">
         <v>2229</v>
       </c>
+      <c r="J77" s="10"/>
       <c r="K77"/>
       <c r="L77"/>
       <c r="M77"/>
@@ -20356,6 +20446,7 @@
       <c r="H78" s="40">
         <v>38502</v>
       </c>
+      <c r="J78" s="10"/>
       <c r="K78"/>
       <c r="L78"/>
       <c r="M78"/>
@@ -21399,6 +21490,7 @@
         <v>0</v>
       </c>
       <c r="I79"/>
+      <c r="J79" s="10"/>
       <c r="K79"/>
       <c r="L79"/>
       <c r="M79"/>
@@ -22442,6 +22534,7 @@
         <v>1</v>
       </c>
       <c r="I80"/>
+      <c r="J80" s="10"/>
       <c r="K80"/>
       <c r="L80"/>
       <c r="M80"/>
@@ -23487,6 +23580,7 @@
       <c r="I81" s="21" t="s">
         <v>136</v>
       </c>
+      <c r="J81" s="10"/>
       <c r="K81"/>
       <c r="L81"/>
       <c r="M81"/>
@@ -24514,7 +24608,7 @@
       <c r="G82" s="10"/>
       <c r="H82" s="24"/>
       <c r="I82"/>
-      <c r="J82"/>
+      <c r="J82" s="10"/>
       <c r="K82"/>
       <c r="L82"/>
       <c r="M82"/>
@@ -25558,6 +25652,7 @@
         <v>167</v>
       </c>
       <c r="I83"/>
+      <c r="J83" s="10"/>
     </row>
     <row r="84" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
@@ -25585,6 +25680,7 @@
         <v>168</v>
       </c>
       <c r="I84"/>
+      <c r="J84" s="10"/>
     </row>
     <row r="85" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
@@ -25612,6 +25708,7 @@
         <v>169</v>
       </c>
       <c r="I85"/>
+      <c r="J85" s="10"/>
     </row>
     <row r="86" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A86"/>
@@ -25623,6 +25720,7 @@
       <c r="G86" s="10"/>
       <c r="H86" s="34"/>
       <c r="I86"/>
+      <c r="J86" s="10"/>
     </row>
     <row r="87" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
@@ -25650,7 +25748,7 @@
         <v>44.6584</v>
       </c>
       <c r="I87"/>
-      <c r="J87"/>
+      <c r="J87" s="10"/>
       <c r="K87"/>
       <c r="L87"/>
       <c r="M87"/>
@@ -26694,7 +26792,7 @@
         <v>-124.09538000000001</v>
       </c>
       <c r="I88"/>
-      <c r="J88"/>
+      <c r="J88" s="10"/>
       <c r="K88"/>
       <c r="L88"/>
       <c r="M88"/>
@@ -27722,7 +27820,7 @@
       <c r="G89" s="10"/>
       <c r="H89" s="24"/>
       <c r="I89"/>
-      <c r="J89"/>
+      <c r="J89" s="10"/>
       <c r="K89"/>
       <c r="L89"/>
       <c r="M89"/>
@@ -28768,6 +28866,7 @@
       <c r="I90" s="14" t="s">
         <v>178</v>
       </c>
+      <c r="J90" s="10"/>
     </row>
     <row r="91" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
@@ -28795,6 +28894,7 @@
         <v>44.6584</v>
       </c>
       <c r="I91"/>
+      <c r="J91" s="10"/>
     </row>
     <row r="92" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
@@ -28822,6 +28922,7 @@
         <v>-124.09538000000001</v>
       </c>
       <c r="I92"/>
+      <c r="J92" s="10"/>
     </row>
     <row r="93" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
@@ -28849,6 +28950,7 @@
         <v>0.45</v>
       </c>
       <c r="I93"/>
+      <c r="J93" s="10"/>
     </row>
     <row r="94" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
@@ -28876,6 +28978,7 @@
         <v>0.45</v>
       </c>
       <c r="I94"/>
+      <c r="J94" s="10"/>
     </row>
     <row r="95" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
@@ -28903,6 +29006,7 @@
         <v>0.45</v>
       </c>
       <c r="I95"/>
+      <c r="J95" s="10"/>
     </row>
     <row r="96" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
@@ -28930,6 +29034,7 @@
         <v>0.45</v>
       </c>
       <c r="I96"/>
+      <c r="J96" s="10"/>
     </row>
     <row r="97" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A97"/>
@@ -28941,6 +29046,7 @@
       <c r="G97" s="10"/>
       <c r="H97" s="34"/>
       <c r="I97"/>
+      <c r="J97" s="10"/>
     </row>
     <row r="98" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A98" s="23" t="s">
@@ -28966,6 +29072,7 @@
       <c r="I98" s="23" t="s">
         <v>17</v>
       </c>
+      <c r="J98" s="10"/>
       <c r="K98" s="10"/>
       <c r="L98" s="10"/>
       <c r="M98" s="10"/>
@@ -29994,6 +30101,7 @@
       <c r="G99" s="19"/>
       <c r="H99" s="23"/>
       <c r="I99" s="19"/>
+      <c r="J99" s="10"/>
       <c r="K99" s="10"/>
       <c r="L99" s="10"/>
       <c r="M99" s="10"/>
@@ -31038,6 +31146,7 @@
         <v>44.6584</v>
       </c>
       <c r="I100"/>
+      <c r="J100" s="10"/>
     </row>
     <row r="101" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
@@ -31065,6 +31174,7 @@
         <v>-124.09538000000001</v>
       </c>
       <c r="I101"/>
+      <c r="J101" s="10"/>
     </row>
     <row r="102" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
@@ -31092,6 +31202,7 @@
         <v>1.24565442E-3</v>
       </c>
       <c r="I102"/>
+      <c r="J102" s="10"/>
     </row>
     <row r="103" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
@@ -31119,6 +31230,7 @@
         <v>2.7448245400000002E-4</v>
       </c>
       <c r="I103"/>
+      <c r="J103" s="10"/>
     </row>
     <row r="104" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
@@ -31146,6 +31258,7 @@
         <v>-1.0516132700000001E-6</v>
       </c>
       <c r="I104"/>
+      <c r="J104" s="10"/>
     </row>
     <row r="105" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
@@ -31173,6 +31286,7 @@
         <v>1.83649174E-7</v>
       </c>
       <c r="I105"/>
+      <c r="J105" s="10"/>
     </row>
     <row r="106" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
@@ -31200,6 +31314,7 @@
         <v>-66.258320999999995</v>
       </c>
       <c r="I106"/>
+      <c r="J106" s="10"/>
     </row>
     <row r="107" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
@@ -31227,6 +31342,7 @@
         <v>53.070829699999997</v>
       </c>
       <c r="I107"/>
+      <c r="J107" s="10"/>
     </row>
     <row r="108" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
@@ -31254,6 +31370,7 @@
         <v>-0.55845462300000004</v>
       </c>
       <c r="I108"/>
+      <c r="J108" s="10"/>
     </row>
     <row r="109" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
@@ -31281,6 +31398,7 @@
         <v>525130.68999999994</v>
       </c>
       <c r="I109"/>
+      <c r="J109" s="10"/>
     </row>
     <row r="110" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
@@ -31308,6 +31426,7 @@
         <v>6.0112117600000001</v>
       </c>
       <c r="I110"/>
+      <c r="J110" s="10"/>
     </row>
     <row r="111" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
@@ -31335,6 +31454,7 @@
         <v>-0.14411900599999999</v>
       </c>
       <c r="I111"/>
+      <c r="J111" s="10"/>
     </row>
     <row r="112" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
@@ -31362,6 +31482,7 @@
         <v>25.07525</v>
       </c>
       <c r="I112"/>
+      <c r="J112" s="10"/>
     </row>
     <row r="113" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
@@ -31389,6 +31510,7 @@
         <v>-9.5E-4</v>
       </c>
       <c r="I113"/>
+      <c r="J113" s="10"/>
     </row>
     <row r="114" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
@@ -31416,6 +31538,7 @@
         <v>0</v>
       </c>
       <c r="I114"/>
+      <c r="J114" s="10"/>
     </row>
     <row r="115" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
@@ -31443,6 +31566,7 @@
         <v>3.3198617700000002E-2</v>
       </c>
       <c r="I115"/>
+      <c r="J115" s="10"/>
     </row>
     <row r="116" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
@@ -31470,6 +31594,7 @@
         <v>4.8887760099999996E-4</v>
       </c>
       <c r="I116"/>
+      <c r="J116" s="10"/>
     </row>
     <row r="117" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
@@ -31497,6 +31622,7 @@
         <v>-6.0428733500000004E-12</v>
       </c>
       <c r="I117"/>
+      <c r="J117" s="10"/>
     </row>
     <row r="118" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
@@ -31524,6 +31650,7 @@
         <v>-0.99282949899999995</v>
       </c>
       <c r="I118"/>
+      <c r="J118" s="10"/>
     </row>
     <row r="119" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
@@ -31551,6 +31678,7 @@
         <v>0.151062855</v>
       </c>
       <c r="I119"/>
+      <c r="J119" s="10"/>
     </row>
     <row r="120" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
@@ -31578,6 +31706,7 @@
         <v>-9.48471696E-5</v>
       </c>
       <c r="I120"/>
+      <c r="J120" s="10"/>
     </row>
     <row r="121" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
@@ -31605,6 +31734,7 @@
         <v>2.9097712499999998E-5</v>
       </c>
       <c r="I121"/>
+      <c r="J121" s="10"/>
     </row>
     <row r="122" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
@@ -31632,6 +31762,7 @@
         <v>-9.5700000000000003E-8</v>
       </c>
       <c r="I122"/>
+      <c r="J122" s="10"/>
     </row>
     <row r="123" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
@@ -31659,6 +31790,7 @@
         <v>3.2499999999999998E-6</v>
       </c>
       <c r="I123"/>
+      <c r="J123" s="10"/>
     </row>
     <row r="124" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A124"/>
@@ -31670,6 +31802,7 @@
       <c r="G124" s="10"/>
       <c r="H124" s="34"/>
       <c r="I124"/>
+      <c r="J124" s="10"/>
     </row>
     <row r="125" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
@@ -31697,6 +31830,7 @@
         <v>44.6584</v>
       </c>
       <c r="I125"/>
+      <c r="J125" s="10"/>
     </row>
     <row r="126" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
@@ -31724,6 +31858,7 @@
         <v>-124.09538000000001</v>
       </c>
       <c r="I126"/>
+      <c r="J126" s="10"/>
     </row>
     <row r="127" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
@@ -31751,6 +31886,7 @@
         <v>176</v>
       </c>
       <c r="I127"/>
+      <c r="J127" s="10"/>
     </row>
     <row r="128" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
@@ -31780,6 +31916,7 @@
       <c r="I128" s="23" t="s">
         <v>138</v>
       </c>
+      <c r="J128" s="10"/>
       <c r="K128" s="10"/>
       <c r="L128" s="10"/>
       <c r="M128" s="10"/>
@@ -32808,6 +32945,7 @@
       <c r="G129" s="10"/>
       <c r="H129" s="34"/>
       <c r="I129"/>
+      <c r="J129" s="10"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
@@ -32835,6 +32973,7 @@
         <v>171</v>
       </c>
       <c r="I130"/>
+      <c r="J130" s="10"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
@@ -32862,6 +33001,7 @@
         <v>172</v>
       </c>
       <c r="I131"/>
+      <c r="J131" s="10"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
@@ -32889,6 +33029,7 @@
         <v>20.6</v>
       </c>
       <c r="I132"/>
+      <c r="J132" s="10"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
@@ -32916,6 +33057,7 @@
         <v>173</v>
       </c>
       <c r="I133"/>
+      <c r="J133" s="10"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
@@ -32943,6 +33085,7 @@
         <v>174</v>
       </c>
       <c r="I134"/>
+      <c r="J134" s="10"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
@@ -32970,6 +33113,7 @@
         <v>175</v>
       </c>
       <c r="I135"/>
+      <c r="J135" s="10"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
@@ -32997,6 +33141,7 @@
         <v>148</v>
       </c>
       <c r="I136"/>
+      <c r="J136" s="10"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="s">
@@ -33024,6 +33169,7 @@
         <v>149</v>
       </c>
       <c r="I137"/>
+      <c r="J137" s="10"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138"/>
@@ -33035,6 +33181,7 @@
       <c r="G138" s="10"/>
       <c r="H138" s="24"/>
       <c r="I138"/>
+      <c r="J138" s="10"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
@@ -33061,6 +33208,7 @@
       <c r="H139" s="40">
         <v>-2.6800000000000001E-2</v>
       </c>
+      <c r="J139" s="10"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
@@ -33087,6 +33235,7 @@
       <c r="H140" s="40">
         <v>0.95989999999999998</v>
       </c>
+      <c r="J140" s="10"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
@@ -33113,6 +33262,7 @@
       <c r="H141" s="40">
         <v>-1.9703999999999999</v>
       </c>
+      <c r="J141" s="10"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
@@ -33139,6 +33289,7 @@
       <c r="H142" s="40">
         <v>16.39</v>
       </c>
+      <c r="J142" s="10"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="8" t="s">
@@ -33165,6 +33316,7 @@
       <c r="H143" s="40">
         <v>19706</v>
       </c>
+      <c r="J143" s="10"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="8" t="s">
@@ -33191,7 +33343,7 @@
       <c r="H144" s="40">
         <v>34</v>
       </c>
-      <c r="J144"/>
+      <c r="J144" s="10"/>
     </row>
     <row r="145" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A145" s="8" t="s">
@@ -33218,7 +33370,7 @@
       <c r="H145" s="40">
         <v>3073</v>
       </c>
-      <c r="J145"/>
+      <c r="J145" s="10"/>
     </row>
     <row r="146" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="s">
@@ -33245,6 +33397,7 @@
       <c r="H146" s="40">
         <v>44327</v>
       </c>
+      <c r="J146" s="10"/>
     </row>
     <row r="147" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A147"/>
@@ -33256,6 +33409,7 @@
       <c r="G147" s="10"/>
       <c r="H147" s="40"/>
       <c r="I147"/>
+      <c r="J147" s="10"/>
     </row>
     <row r="148" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A148" s="8" t="s">
@@ -33282,6 +33436,7 @@
       <c r="H148" s="40">
         <v>17533</v>
       </c>
+      <c r="J148" s="10"/>
       <c r="K148"/>
       <c r="L148"/>
       <c r="M148"/>
@@ -34324,6 +34479,7 @@
       <c r="H149" s="40">
         <v>101</v>
       </c>
+      <c r="J149" s="10"/>
       <c r="K149"/>
       <c r="L149"/>
       <c r="M149"/>
@@ -35366,6 +35522,7 @@
       <c r="H150" s="40">
         <v>2229</v>
       </c>
+      <c r="J150" s="10"/>
       <c r="K150"/>
       <c r="L150"/>
       <c r="M150"/>
@@ -36408,6 +36565,7 @@
       <c r="H151" s="40">
         <v>38502</v>
       </c>
+      <c r="J151" s="10"/>
       <c r="K151"/>
       <c r="L151"/>
       <c r="M151"/>
@@ -37451,6 +37609,7 @@
         <v>0</v>
       </c>
       <c r="I152"/>
+      <c r="J152" s="10"/>
       <c r="K152"/>
       <c r="L152"/>
       <c r="M152"/>
@@ -38494,6 +38653,7 @@
         <v>1</v>
       </c>
       <c r="I153"/>
+      <c r="J153" s="10"/>
       <c r="K153"/>
       <c r="L153"/>
       <c r="M153"/>
@@ -39539,6 +39699,7 @@
       <c r="I154" s="22" t="s">
         <v>136</v>
       </c>
+      <c r="J154" s="10"/>
       <c r="K154"/>
       <c r="L154"/>
       <c r="M154"/>
@@ -40566,6 +40727,7 @@
       <c r="G155" s="10"/>
       <c r="H155" s="24"/>
       <c r="I155"/>
+      <c r="J155" s="10"/>
       <c r="K155"/>
       <c r="L155"/>
       <c r="M155"/>
@@ -41611,6 +41773,7 @@
       <c r="I156" s="31" t="s">
         <v>139</v>
       </c>
+      <c r="J156" s="10"/>
     </row>
     <row r="157" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A157" s="8" t="s">
@@ -41640,6 +41803,7 @@
       <c r="I157" s="31" t="s">
         <v>140</v>
       </c>
+      <c r="J157" s="10"/>
     </row>
     <row r="158" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A158" s="8" t="s">
@@ -41667,6 +41831,7 @@
         <v>-1095.03</v>
       </c>
       <c r="I158" s="32"/>
+      <c r="J158" s="10"/>
     </row>
     <row r="159" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A159" s="8" t="s">
@@ -41694,6 +41859,7 @@
         <v>2.7113000000000002E-2</v>
       </c>
       <c r="I159" s="32"/>
+      <c r="J159" s="10"/>
     </row>
     <row r="160" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A160" s="8" t="s">
@@ -41721,6 +41887,7 @@
         <v>0</v>
       </c>
       <c r="I160"/>
+      <c r="J160" s="10"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="8" t="s">
@@ -41750,7 +41917,7 @@
       <c r="I161" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="J161"/>
+      <c r="J161" s="10"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="8" t="s">
@@ -41780,7 +41947,7 @@
       <c r="I162" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="J162"/>
+      <c r="J162" s="10"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="8" t="s">
@@ -41810,7 +41977,7 @@
       <c r="I163" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="J163"/>
+      <c r="J163" s="10"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="s">
@@ -41838,6 +42005,7 @@
         <v>27.755389999999998</v>
       </c>
       <c r="I164"/>
+      <c r="J164" s="10"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="8" t="s">
@@ -41865,6 +42033,7 @@
         <v>0.52579799999999999</v>
       </c>
       <c r="I165"/>
+      <c r="J165" s="10"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="8" t="s">
@@ -41892,6 +42061,7 @@
         <v>19.667739999999998</v>
       </c>
       <c r="I166"/>
+      <c r="J166" s="10"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="8" t="s">
@@ -41919,6 +42089,7 @@
         <v>34.446179999999998</v>
       </c>
       <c r="I167"/>
+      <c r="J167" s="10"/>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="8" t="s">
@@ -41946,6 +42117,7 @@
         <v>5.7845329999999997</v>
       </c>
       <c r="I168"/>
+      <c r="J168" s="10"/>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="8" t="s">
@@ -41973,6 +42145,7 @@
         <v>-3990.6190000000001</v>
       </c>
       <c r="I169"/>
+      <c r="J169" s="10"/>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="8" t="s">
@@ -42000,7 +42173,7 @@
         <v>-11590.4</v>
       </c>
       <c r="I170"/>
-      <c r="J170"/>
+      <c r="J170" s="10"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="8" t="s">
@@ -42028,6 +42201,7 @@
         <v>0</v>
       </c>
       <c r="I171"/>
+      <c r="J171" s="10"/>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="8" t="s">
@@ -42055,6 +42229,7 @@
         <v>8388.6</v>
       </c>
       <c r="I172"/>
+      <c r="J172" s="10"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="8" t="s">
@@ -42082,6 +42257,7 @@
         <v>125829.1</v>
       </c>
       <c r="I173"/>
+      <c r="J173" s="10"/>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174"/>
@@ -42093,7 +42269,7 @@
       <c r="G174" s="10"/>
       <c r="H174" s="48"/>
       <c r="I174"/>
-      <c r="J174"/>
+      <c r="J174" s="10"/>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="8" t="s">
@@ -42121,7 +42297,7 @@
         <v>44.6584</v>
       </c>
       <c r="I175"/>
-      <c r="J175"/>
+      <c r="J175" s="10"/>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="8" t="s">
@@ -42149,7 +42325,7 @@
         <v>-124.09538000000001</v>
       </c>
       <c r="I176"/>
-      <c r="J176"/>
+      <c r="J176" s="10"/>
     </row>
     <row r="177" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A177"/>
@@ -42161,7 +42337,7 @@
       <c r="G177" s="10"/>
       <c r="H177" s="34"/>
       <c r="I177"/>
-      <c r="J177"/>
+      <c r="J177" s="10"/>
     </row>
     <row r="178" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A178" s="23" t="s">
@@ -42187,7 +42363,7 @@
       <c r="I178" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J178"/>
+      <c r="J178" s="10"/>
       <c r="K178" s="10"/>
       <c r="L178" s="10"/>
       <c r="M178" s="10"/>
@@ -43214,7 +43390,7 @@
       <c r="E179"/>
       <c r="F179"/>
       <c r="G179" s="10"/>
-      <c r="J179"/>
+      <c r="J179" s="10"/>
     </row>
     <row r="180" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A180"/>
@@ -43225,6 +43401,7 @@
       <c r="F180"/>
       <c r="G180" s="10"/>
       <c r="I180"/>
+      <c r="J180" s="10"/>
     </row>
     <row r="181" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A181"/>
@@ -43234,6 +43411,7 @@
       <c r="E181"/>
       <c r="F181"/>
       <c r="G181" s="10"/>
+      <c r="J181" s="10"/>
     </row>
     <row r="182" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A182"/>
@@ -43244,6 +43422,7 @@
       <c r="F182"/>
       <c r="G182" s="10"/>
       <c r="I182"/>
+      <c r="J182" s="10"/>
     </row>
     <row r="183" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A183" s="8" t="s">
@@ -43268,6 +43447,7 @@
       <c r="I183" s="8" t="s">
         <v>17</v>
       </c>
+      <c r="J183" s="10"/>
     </row>
     <row r="184" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A184" s="8" t="s">
@@ -43292,6 +43472,7 @@
       <c r="I184" s="8" t="s">
         <v>17</v>
       </c>
+      <c r="J184" s="10"/>
     </row>
     <row r="185" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A185"/>
@@ -43302,6 +43483,7 @@
       <c r="F185" s="13"/>
       <c r="G185" s="10"/>
       <c r="I185"/>
+      <c r="J185" s="10"/>
     </row>
     <row r="186" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A186" s="8" t="s">
@@ -43326,6 +43508,7 @@
       <c r="I186" s="8" t="s">
         <v>17</v>
       </c>
+      <c r="J186" s="10"/>
     </row>
     <row r="187" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A187" s="8" t="s">
@@ -43350,6 +43533,7 @@
       <c r="I187" s="8" t="s">
         <v>17</v>
       </c>
+      <c r="J187" s="10"/>
     </row>
     <row r="188" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A188" s="8" t="s">
@@ -43373,6 +43557,7 @@
       <c r="I188" s="8" t="s">
         <v>17</v>
       </c>
+      <c r="J188" s="10"/>
     </row>
     <row r="189" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A189" s="8" t="s">
@@ -43396,6 +43581,10 @@
       <c r="I189" s="8" t="s">
         <v>17</v>
       </c>
+      <c r="J189" s="10"/>
+    </row>
+    <row r="190" spans="1:1027" x14ac:dyDescent="0.25">
+      <c r="J190" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/deployment/Omaha_Cal_Info_CE01ISSM_00003.xlsx
+++ b/deployment/Omaha_Cal_Info_CE01ISSM_00003.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="27435" yWindow="585" windowWidth="29040" windowHeight="16440" tabRatio="759"/>
+    <workbookView xWindow="27435" yWindow="585" windowWidth="29040" windowHeight="16440" tabRatio="759" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -266,9 +266,6 @@
   </si>
   <si>
     <t>CC_csv</t>
-  </si>
-  <si>
-    <t>CE01ISSM-MFD37-04-DOSTAD000</t>
   </si>
   <si>
     <t>CE01ISSM-RID16-07-NUTNRB000</t>
@@ -710,6 +707,9 @@
   </si>
   <si>
     <t>OL000198</t>
+  </si>
+  <si>
+    <t>CE01ISSM-MFD37-03-DOSTAD000</t>
   </si>
 </sst>
 </file>
@@ -1929,8 +1929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1950,7 +1950,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="56" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B1" s="56" t="s">
         <v>0</v>
@@ -1986,21 +1986,21 @@
         <v>10</v>
       </c>
       <c r="M1" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="N1" s="56" t="s">
         <v>153</v>
-      </c>
-      <c r="N1" s="56" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D2" s="7">
         <v>3</v>
@@ -2015,16 +2015,16 @@
         <v>42284</v>
       </c>
       <c r="H2" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="I2" s="29" t="s">
         <v>181</v>
-      </c>
-      <c r="I2" s="29" t="s">
-        <v>182</v>
       </c>
       <c r="J2" s="45">
         <v>25</v>
       </c>
       <c r="K2" s="45" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L2" s="36"/>
       <c r="M2" s="46">
@@ -2052,8 +2052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMM190"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2067,7 +2067,7 @@
     <col min="7" max="7" width="22.28515625" style="8" customWidth="1"/>
     <col min="8" max="8" width="26.140625" style="26" customWidth="1"/>
     <col min="9" max="9" width="21" style="8" customWidth="1"/>
-    <col min="10" max="10" width="27.28515625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="12" style="8" customWidth="1"/>
     <col min="11" max="11" width="15.140625" style="8" customWidth="1"/>
     <col min="12" max="12" width="8.85546875" style="8"/>
     <col min="13" max="13" width="15.85546875" style="8" customWidth="1"/>
@@ -2080,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="55" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C1" s="55" t="s">
         <v>12</v>
@@ -2089,7 +2089,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="55" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F1" s="55" t="s">
         <v>13</v>
@@ -2120,24 +2120,28 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D3" s="8">
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="34"/>
       <c r="I3" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
+      </c>
+      <c r="J3" s="8" t="e">
+        <f>MATCH(A3,K:K,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="K3"/>
       <c r="L3"/>
@@ -4189,19 +4193,19 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D5" s="8">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>19</v>
@@ -5233,19 +5237,19 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D6" s="8">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>20</v>
@@ -7305,19 +7309,19 @@
         <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D8" s="8">
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>19</v>
@@ -7333,19 +7337,19 @@
         <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D9" s="8">
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>20</v>
@@ -7361,19 +7365,19 @@
         <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D10" s="8">
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>54</v>
@@ -7391,19 +7395,19 @@
         <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D11" s="8">
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>55</v>
@@ -7421,19 +7425,19 @@
         <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D12" s="8">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>56</v>
@@ -7451,19 +7455,19 @@
         <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D13" s="8">
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>57</v>
@@ -7481,19 +7485,19 @@
         <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D14" s="8">
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>58</v>
@@ -7511,19 +7515,19 @@
         <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D15" s="8">
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>59</v>
@@ -7541,19 +7545,19 @@
         <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D16" s="8">
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>60</v>
@@ -7571,19 +7575,19 @@
         <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D17" s="8">
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>61</v>
@@ -7601,19 +7605,19 @@
         <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D18" s="8">
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>62</v>
@@ -7631,19 +7635,19 @@
         <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D19" s="8">
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>63</v>
@@ -7661,19 +7665,19 @@
         <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D20" s="8">
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>64</v>
@@ -7691,19 +7695,19 @@
         <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D21" s="8">
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>65</v>
@@ -7721,19 +7725,19 @@
         <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D22" s="8">
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G22" s="10" t="s">
         <v>66</v>
@@ -7751,19 +7755,19 @@
         <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D23" s="8">
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F23" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>67</v>
@@ -7781,19 +7785,19 @@
         <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D24" s="8">
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>68</v>
@@ -7811,19 +7815,19 @@
         <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D25" s="8">
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>69</v>
@@ -7841,19 +7845,19 @@
         <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D26" s="8">
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>70</v>
@@ -7871,19 +7875,19 @@
         <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D27" s="8">
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>71</v>
@@ -7901,19 +7905,19 @@
         <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D28" s="8">
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>72</v>
@@ -7931,19 +7935,19 @@
         <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D29" s="8">
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>73</v>
@@ -7961,19 +7965,19 @@
         <v>53</v>
       </c>
       <c r="B30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D30" s="8">
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>74</v>
@@ -7991,19 +7995,19 @@
         <v>53</v>
       </c>
       <c r="B31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D31" s="8">
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G31" s="10" t="s">
         <v>75</v>
@@ -8014,6 +8018,7 @@
       <c r="I31"/>
       <c r="J31" s="10"/>
       <c r="K31" s="39"/>
+      <c r="N31" s="10"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32"/>
@@ -8032,16 +8037,16 @@
         <v>77</v>
       </c>
       <c r="B33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D33" s="8">
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F33" s="28">
         <v>136</v>
@@ -8060,16 +8065,16 @@
         <v>77</v>
       </c>
       <c r="B34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D34" s="8">
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F34" s="28">
         <v>136</v>
@@ -8088,16 +8093,16 @@
         <v>77</v>
       </c>
       <c r="B35" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D35" s="8">
         <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F35" s="28">
         <v>136</v>
@@ -8106,7 +8111,7 @@
         <v>78</v>
       </c>
       <c r="H35" s="40" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I35"/>
       <c r="J35" s="10"/>
@@ -8128,28 +8133,28 @@
         <v>77</v>
       </c>
       <c r="B36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D36" s="10">
         <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F36" s="23">
         <v>136</v>
       </c>
       <c r="G36" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H36" s="23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I36" s="23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J36" s="10"/>
       <c r="K36" s="10"/>
@@ -9187,16 +9192,16 @@
         <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D38" s="8">
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F38" s="28">
         <v>995</v>
@@ -9215,16 +9220,16 @@
         <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D39" s="8">
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F39" s="28">
         <v>995</v>
@@ -9243,16 +9248,16 @@
         <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D40" s="8">
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F40" s="28">
         <v>995</v>
@@ -9271,16 +9276,16 @@
         <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D41" s="8">
         <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F41" s="28">
         <v>995</v>
@@ -9299,16 +9304,16 @@
         <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D42" s="8">
         <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F42" s="28">
         <v>995</v>
@@ -9327,16 +9332,16 @@
         <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D43" s="8">
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F43" s="28">
         <v>995</v>
@@ -9355,16 +9360,16 @@
         <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8">
         <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F44" s="28">
         <v>995</v>
@@ -9376,7 +9381,7 @@
         <v>124</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J44" s="10"/>
     </row>
@@ -9385,16 +9390,16 @@
         <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8">
         <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F45" s="28">
         <v>995</v>
@@ -9415,16 +9420,16 @@
         <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8">
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F46" s="28">
         <v>995</v>
@@ -9436,7 +9441,7 @@
         <v>1.0760000000000001</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J46" s="10"/>
     </row>
@@ -9445,16 +9450,16 @@
         <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8">
         <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F47" s="28">
         <v>995</v>
@@ -9484,25 +9489,25 @@
     </row>
     <row r="49" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B49" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D49" s="8">
         <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F49" s="28">
         <v>264</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H49" s="51">
         <v>217</v>
@@ -9515,25 +9520,25 @@
     </row>
     <row r="50" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B50" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D50" s="8">
         <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F50" s="28">
         <v>264</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H50" s="51">
         <v>240</v>
@@ -9546,25 +9551,25 @@
     </row>
     <row r="51" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B51" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D51" s="8">
         <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F51" s="28">
         <v>264</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H51" s="51">
         <v>20.07</v>
@@ -9575,28 +9580,28 @@
     </row>
     <row r="52" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B52" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D52" s="8">
         <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F52" s="28">
         <v>264</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H52" s="51" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I52"/>
       <c r="J52" s="10"/>
@@ -9604,28 +9609,28 @@
     </row>
     <row r="53" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B53" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D53" s="8">
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F53" s="28">
         <v>264</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H53" s="51" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I53"/>
       <c r="J53" s="10"/>
@@ -9633,28 +9638,28 @@
     </row>
     <row r="54" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B54" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D54" s="8">
         <v>3</v>
       </c>
       <c r="E54" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F54" s="28">
         <v>264</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H54" s="51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I54"/>
       <c r="J54" s="10"/>
@@ -9662,28 +9667,28 @@
     </row>
     <row r="55" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B55" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D55" s="8">
         <v>3</v>
       </c>
       <c r="E55" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F55" s="28">
         <v>264</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H55" s="51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I55"/>
       <c r="J55" s="10"/>
@@ -9706,25 +9711,25 @@
         <v>32</v>
       </c>
       <c r="B57" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D57" s="8">
         <v>3</v>
       </c>
       <c r="E57" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F57" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G57" s="10" t="s">
         <v>33</v>
       </c>
       <c r="H57" s="52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I57"/>
       <c r="J57" s="10"/>
@@ -10750,25 +10755,25 @@
         <v>32</v>
       </c>
       <c r="B58" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D58" s="8">
         <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F58" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G58" s="10" t="s">
         <v>34</v>
       </c>
       <c r="H58" s="52" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I58"/>
       <c r="J58" s="10"/>
@@ -11794,19 +11799,19 @@
         <v>32</v>
       </c>
       <c r="B59" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D59" s="8">
         <v>3</v>
       </c>
       <c r="E59" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F59" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G59" s="10" t="s">
         <v>35</v>
@@ -12838,25 +12843,25 @@
         <v>32</v>
       </c>
       <c r="B60" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D60" s="8">
         <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F60" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G60" s="10" t="s">
         <v>36</v>
       </c>
       <c r="H60" s="52" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I60"/>
       <c r="J60" s="10"/>
@@ -13882,25 +13887,25 @@
         <v>32</v>
       </c>
       <c r="B61" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D61" s="8">
         <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F61" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G61" s="10" t="s">
         <v>37</v>
       </c>
       <c r="H61" s="52" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I61"/>
       <c r="J61" s="10"/>
@@ -14926,25 +14931,25 @@
         <v>32</v>
       </c>
       <c r="B62" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D62" s="8">
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F62" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G62" s="10" t="s">
         <v>38</v>
       </c>
       <c r="H62" s="52" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I62"/>
       <c r="J62" s="10"/>
@@ -15970,25 +15975,25 @@
         <v>32</v>
       </c>
       <c r="B63" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D63" s="8">
         <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F63" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G63" s="10" t="s">
         <v>39</v>
       </c>
       <c r="H63" s="40" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I63"/>
       <c r="J63" s="10"/>
@@ -17014,25 +17019,25 @@
         <v>32</v>
       </c>
       <c r="B64" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D64" s="11">
         <v>3</v>
       </c>
       <c r="E64" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F64" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G64" s="12" t="s">
         <v>40</v>
       </c>
       <c r="H64" s="53" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J64" s="10"/>
     </row>
@@ -17050,25 +17055,25 @@
     </row>
     <row r="66" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B66" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D66" s="8">
         <v>3</v>
       </c>
       <c r="E66" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F66" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H66" s="40">
         <v>-9.5600000000000004E-2</v>
@@ -17078,25 +17083,25 @@
     </row>
     <row r="67" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B67" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D67" s="8">
         <v>3</v>
       </c>
       <c r="E67" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F67" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H67" s="40">
         <v>1.2159</v>
@@ -17106,25 +17111,25 @@
     </row>
     <row r="68" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B68" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D68" s="8">
         <v>3</v>
       </c>
       <c r="E68" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F68" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H68" s="40">
         <v>-2.2898999999999998</v>
@@ -17134,25 +17139,25 @@
     </row>
     <row r="69" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B69" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D69" s="8">
         <v>3</v>
       </c>
       <c r="E69" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F69" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H69" s="40">
         <v>14.6716</v>
@@ -17162,22 +17167,22 @@
     </row>
     <row r="70" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B70" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D70" s="8">
         <v>3</v>
       </c>
       <c r="E70" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F70" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G70" s="10" t="s">
         <v>23</v>
@@ -17186,60 +17191,60 @@
         <v>19706</v>
       </c>
       <c r="I70" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J70" s="10"/>
       <c r="AMM70"/>
     </row>
     <row r="71" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B71" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D71" s="8">
         <v>3</v>
       </c>
       <c r="E71" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F71" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H71" s="35">
         <v>34</v>
       </c>
       <c r="I71" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J71" s="10"/>
       <c r="AMM71"/>
     </row>
     <row r="72" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B72" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D72" s="8">
         <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F72" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G72" s="10" t="s">
         <v>25</v>
@@ -17253,25 +17258,25 @@
     </row>
     <row r="73" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B73" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D73" s="8">
         <v>3</v>
       </c>
       <c r="E73" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F73" s="28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H73" s="35">
         <v>44327</v>
@@ -17297,19 +17302,19 @@
         <v>22</v>
       </c>
       <c r="B75" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D75" s="8">
         <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F75" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G75" s="10" t="s">
         <v>23</v>
@@ -18340,19 +18345,19 @@
         <v>22</v>
       </c>
       <c r="B76" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D76" s="8">
         <v>3</v>
       </c>
       <c r="E76" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F76" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G76" s="10" t="s">
         <v>24</v>
@@ -19383,19 +19388,19 @@
         <v>22</v>
       </c>
       <c r="B77" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D77" s="8">
         <v>3</v>
       </c>
       <c r="E77" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F77" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G77" s="10" t="s">
         <v>25</v>
@@ -20426,19 +20431,19 @@
         <v>22</v>
       </c>
       <c r="B78" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D78" s="8">
         <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F78" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G78" s="10" t="s">
         <v>26</v>
@@ -21469,19 +21474,19 @@
         <v>22</v>
       </c>
       <c r="B79" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D79" s="8">
         <v>3</v>
       </c>
       <c r="E79" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F79" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G79" s="10" t="s">
         <v>27</v>
@@ -22513,19 +22518,19 @@
         <v>22</v>
       </c>
       <c r="B80" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D80" s="8">
         <v>3</v>
       </c>
       <c r="E80" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F80" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G80" s="10" t="s">
         <v>28</v>
@@ -23557,19 +23562,19 @@
         <v>22</v>
       </c>
       <c r="B81" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D81" s="14">
         <v>3</v>
       </c>
       <c r="E81" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G81" s="14" t="s">
         <v>29</v>
@@ -23578,7 +23583,7 @@
         <v>35</v>
       </c>
       <c r="I81" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J81" s="10"/>
       <c r="K81"/>
@@ -25628,84 +25633,84 @@
     </row>
     <row r="83" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B83" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D83" s="8">
         <v>3</v>
       </c>
       <c r="E83" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F83" s="28">
         <v>231</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H83" s="49" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I83"/>
       <c r="J83" s="10"/>
     </row>
     <row r="84" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D84" s="8">
         <v>3</v>
       </c>
       <c r="E84" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F84" s="28">
         <v>231</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H84" s="49" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I84"/>
       <c r="J84" s="10"/>
     </row>
     <row r="85" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D85" s="8">
         <v>3</v>
       </c>
       <c r="E85" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F85" s="28">
         <v>231</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H85" s="49" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I85"/>
       <c r="J85" s="10"/>
@@ -25727,19 +25732,19 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D87" s="8">
         <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F87" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G87" s="10" t="s">
         <v>19</v>
@@ -26771,19 +26776,19 @@
         <v>21</v>
       </c>
       <c r="B88" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D88" s="8">
         <v>3</v>
       </c>
       <c r="E88" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F88" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G88" s="10" t="s">
         <v>20</v>
@@ -28840,49 +28845,49 @@
     </row>
     <row r="90" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D90" s="8">
         <v>3</v>
       </c>
       <c r="E90" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F90" s="28">
         <v>21524</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H90" s="25">
         <v>25000</v>
       </c>
       <c r="I90" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J90" s="10"/>
     </row>
     <row r="91" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D91" s="8">
         <v>3</v>
       </c>
       <c r="E91" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F91" s="28">
         <v>21524</v>
@@ -28898,19 +28903,19 @@
     </row>
     <row r="92" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D92" s="8">
         <v>3</v>
       </c>
       <c r="E92" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F92" s="28">
         <v>21524</v>
@@ -28926,25 +28931,25 @@
     </row>
     <row r="93" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D93" s="8">
         <v>3</v>
       </c>
       <c r="E93" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F93" s="28">
         <v>21524</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H93" s="40">
         <v>0.45</v>
@@ -28954,25 +28959,25 @@
     </row>
     <row r="94" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B94" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D94" s="8">
         <v>3</v>
       </c>
       <c r="E94" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F94" s="28">
         <v>21524</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H94" s="40">
         <v>0.45</v>
@@ -28982,25 +28987,25 @@
     </row>
     <row r="95" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B95" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D95" s="8">
         <v>3</v>
       </c>
       <c r="E95" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F95" s="28">
         <v>21524</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H95" s="40">
         <v>0.45</v>
@@ -29010,25 +29015,25 @@
     </row>
     <row r="96" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B96" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D96" s="8">
         <v>3</v>
       </c>
       <c r="E96" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F96" s="28">
         <v>21524</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H96" s="40">
         <v>0.45</v>
@@ -29050,22 +29055,22 @@
     </row>
     <row r="98" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A98" s="23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B98" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C98" s="33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D98" s="19">
         <v>3</v>
       </c>
       <c r="E98" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F98" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G98" s="19"/>
       <c r="H98" s="23"/>
@@ -31125,19 +31130,19 @@
         <v>76</v>
       </c>
       <c r="B100" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D100" s="8">
         <v>3</v>
       </c>
       <c r="E100" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F100" s="28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G100" s="10" t="s">
         <v>19</v>
@@ -31153,19 +31158,19 @@
         <v>76</v>
       </c>
       <c r="B101" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D101" s="8">
         <v>3</v>
       </c>
       <c r="E101" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F101" s="28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G101" s="10" t="s">
         <v>20</v>
@@ -31181,19 +31186,19 @@
         <v>76</v>
       </c>
       <c r="B102" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D102" s="8">
         <v>3</v>
       </c>
       <c r="E102" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F102" s="28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G102" s="10" t="s">
         <v>54</v>
@@ -31209,19 +31214,19 @@
         <v>76</v>
       </c>
       <c r="B103" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D103" s="8">
         <v>3</v>
       </c>
       <c r="E103" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F103" s="28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G103" s="10" t="s">
         <v>55</v>
@@ -31237,19 +31242,19 @@
         <v>76</v>
       </c>
       <c r="B104" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D104" s="8">
         <v>3</v>
       </c>
       <c r="E104" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F104" s="28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G104" s="10" t="s">
         <v>56</v>
@@ -31265,19 +31270,19 @@
         <v>76</v>
       </c>
       <c r="B105" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D105" s="8">
         <v>3</v>
       </c>
       <c r="E105" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F105" s="28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G105" s="10" t="s">
         <v>57</v>
@@ -31293,19 +31298,19 @@
         <v>76</v>
       </c>
       <c r="B106" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D106" s="8">
         <v>3</v>
       </c>
       <c r="E106" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F106" s="28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G106" s="10" t="s">
         <v>58</v>
@@ -31321,19 +31326,19 @@
         <v>76</v>
       </c>
       <c r="B107" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D107" s="8">
         <v>3</v>
       </c>
       <c r="E107" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F107" s="28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G107" s="10" t="s">
         <v>59</v>
@@ -31349,19 +31354,19 @@
         <v>76</v>
       </c>
       <c r="B108" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D108" s="8">
         <v>3</v>
       </c>
       <c r="E108" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F108" s="28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G108" s="10" t="s">
         <v>60</v>
@@ -31377,19 +31382,19 @@
         <v>76</v>
       </c>
       <c r="B109" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D109" s="8">
         <v>3</v>
       </c>
       <c r="E109" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F109" s="28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G109" s="10" t="s">
         <v>61</v>
@@ -31405,19 +31410,19 @@
         <v>76</v>
       </c>
       <c r="B110" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D110" s="8">
         <v>3</v>
       </c>
       <c r="E110" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F110" s="28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G110" s="10" t="s">
         <v>62</v>
@@ -31433,19 +31438,19 @@
         <v>76</v>
       </c>
       <c r="B111" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D111" s="8">
         <v>3</v>
       </c>
       <c r="E111" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F111" s="28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G111" s="10" t="s">
         <v>63</v>
@@ -31461,19 +31466,19 @@
         <v>76</v>
       </c>
       <c r="B112" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D112" s="8">
         <v>3</v>
       </c>
       <c r="E112" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F112" s="28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G112" s="10" t="s">
         <v>64</v>
@@ -31489,19 +31494,19 @@
         <v>76</v>
       </c>
       <c r="B113" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D113" s="8">
         <v>3</v>
       </c>
       <c r="E113" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F113" s="28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G113" s="10" t="s">
         <v>65</v>
@@ -31517,19 +31522,19 @@
         <v>76</v>
       </c>
       <c r="B114" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D114" s="8">
         <v>3</v>
       </c>
       <c r="E114" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F114" s="28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G114" s="10" t="s">
         <v>66</v>
@@ -31545,19 +31550,19 @@
         <v>76</v>
       </c>
       <c r="B115" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D115" s="8">
         <v>3</v>
       </c>
       <c r="E115" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F115" s="28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G115" s="10" t="s">
         <v>67</v>
@@ -31573,19 +31578,19 @@
         <v>76</v>
       </c>
       <c r="B116" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D116" s="8">
         <v>3</v>
       </c>
       <c r="E116" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F116" s="28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G116" s="10" t="s">
         <v>68</v>
@@ -31601,19 +31606,19 @@
         <v>76</v>
       </c>
       <c r="B117" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D117" s="8">
         <v>3</v>
       </c>
       <c r="E117" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F117" s="28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G117" s="10" t="s">
         <v>69</v>
@@ -31629,19 +31634,19 @@
         <v>76</v>
       </c>
       <c r="B118" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D118" s="8">
         <v>3</v>
       </c>
       <c r="E118" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F118" s="28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G118" s="10" t="s">
         <v>70</v>
@@ -31657,19 +31662,19 @@
         <v>76</v>
       </c>
       <c r="B119" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D119" s="8">
         <v>3</v>
       </c>
       <c r="E119" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F119" s="28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G119" s="10" t="s">
         <v>71</v>
@@ -31685,19 +31690,19 @@
         <v>76</v>
       </c>
       <c r="B120" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D120" s="8">
         <v>3</v>
       </c>
       <c r="E120" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F120" s="28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G120" s="10" t="s">
         <v>72</v>
@@ -31713,19 +31718,19 @@
         <v>76</v>
       </c>
       <c r="B121" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D121" s="8">
         <v>3</v>
       </c>
       <c r="E121" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F121" s="28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G121" s="10" t="s">
         <v>73</v>
@@ -31741,19 +31746,19 @@
         <v>76</v>
       </c>
       <c r="B122" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D122" s="8">
         <v>3</v>
       </c>
       <c r="E122" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F122" s="28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G122" s="10" t="s">
         <v>74</v>
@@ -31769,19 +31774,19 @@
         <v>76</v>
       </c>
       <c r="B123" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D123" s="8">
         <v>3</v>
       </c>
       <c r="E123" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F123" s="28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G123" s="10" t="s">
         <v>75</v>
@@ -31806,19 +31811,19 @@
     </row>
     <row r="125" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
-        <v>79</v>
+        <v>226</v>
       </c>
       <c r="B125" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D125" s="8">
         <v>3</v>
       </c>
       <c r="E125" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F125" s="28">
         <v>315</v>
@@ -31833,20 +31838,20 @@
       <c r="J125" s="10"/>
     </row>
     <row r="126" spans="1:1027" x14ac:dyDescent="0.25">
-      <c r="A126" s="8" t="s">
-        <v>79</v>
+      <c r="A126" s="10" t="s">
+        <v>226</v>
       </c>
       <c r="B126" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D126" s="8">
         <v>3</v>
       </c>
       <c r="E126" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F126" s="28">
         <v>315</v>
@@ -31861,20 +31866,20 @@
       <c r="J126" s="10"/>
     </row>
     <row r="127" spans="1:1027" x14ac:dyDescent="0.25">
-      <c r="A127" s="8" t="s">
-        <v>79</v>
+      <c r="A127" s="10" t="s">
+        <v>226</v>
       </c>
       <c r="B127" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D127" s="8">
         <v>3</v>
       </c>
       <c r="E127" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F127" s="28">
         <v>315</v>
@@ -31883,38 +31888,38 @@
         <v>78</v>
       </c>
       <c r="H127" s="40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I127"/>
       <c r="J127" s="10"/>
     </row>
     <row r="128" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
-        <v>79</v>
+        <v>226</v>
       </c>
       <c r="B128" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D128" s="10">
         <v>3</v>
       </c>
       <c r="E128" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F128" s="28">
         <v>315</v>
       </c>
       <c r="G128" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="H128" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="I128" s="23" t="s">
         <v>137</v>
-      </c>
-      <c r="H128" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="I128" s="23" t="s">
-        <v>138</v>
       </c>
       <c r="J128" s="10"/>
       <c r="K128" s="10"/>
@@ -32952,25 +32957,25 @@
         <v>41</v>
       </c>
       <c r="B130" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D130" s="8">
         <v>3</v>
       </c>
       <c r="E130" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F130" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G130" s="10" t="s">
         <v>33</v>
       </c>
       <c r="H130" s="40" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I130"/>
       <c r="J130" s="10"/>
@@ -32980,25 +32985,25 @@
         <v>41</v>
       </c>
       <c r="B131" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D131" s="8">
         <v>3</v>
       </c>
       <c r="E131" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F131" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G131" s="10" t="s">
         <v>34</v>
       </c>
       <c r="H131" s="40" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I131"/>
       <c r="J131" s="10"/>
@@ -33008,19 +33013,19 @@
         <v>41</v>
       </c>
       <c r="B132" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D132" s="8">
         <v>3</v>
       </c>
       <c r="E132" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F132" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G132" s="10" t="s">
         <v>35</v>
@@ -33036,25 +33041,25 @@
         <v>41</v>
       </c>
       <c r="B133" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D133" s="8">
         <v>3</v>
       </c>
       <c r="E133" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F133" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G133" s="10" t="s">
         <v>36</v>
       </c>
       <c r="H133" s="40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I133"/>
       <c r="J133" s="10"/>
@@ -33064,25 +33069,25 @@
         <v>41</v>
       </c>
       <c r="B134" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D134" s="8">
         <v>3</v>
       </c>
       <c r="E134" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F134" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G134" s="10" t="s">
         <v>37</v>
       </c>
       <c r="H134" s="40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I134"/>
       <c r="J134" s="10"/>
@@ -33092,25 +33097,25 @@
         <v>41</v>
       </c>
       <c r="B135" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D135" s="8">
         <v>3</v>
       </c>
       <c r="E135" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F135" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G135" s="10" t="s">
         <v>38</v>
       </c>
       <c r="H135" s="40" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I135"/>
       <c r="J135" s="10"/>
@@ -33120,25 +33125,25 @@
         <v>41</v>
       </c>
       <c r="B136" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D136" s="8">
         <v>3</v>
       </c>
       <c r="E136" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F136" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G136" s="10" t="s">
         <v>39</v>
       </c>
       <c r="H136" s="40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I136"/>
       <c r="J136" s="10"/>
@@ -33148,25 +33153,25 @@
         <v>41</v>
       </c>
       <c r="B137" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D137" s="8">
         <v>3</v>
       </c>
       <c r="E137" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F137" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G137" s="10" t="s">
         <v>40</v>
       </c>
       <c r="H137" s="40" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I137"/>
       <c r="J137" s="10"/>
@@ -33185,25 +33190,25 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B139" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D139" s="8">
         <v>3</v>
       </c>
       <c r="E139" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F139" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G139" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H139" s="40">
         <v>-2.6800000000000001E-2</v>
@@ -33212,25 +33217,25 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B140" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D140" s="8">
         <v>3</v>
       </c>
       <c r="E140" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F140" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G140" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H140" s="40">
         <v>0.95989999999999998</v>
@@ -33239,25 +33244,25 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B141" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D141" s="8">
         <v>3</v>
       </c>
       <c r="E141" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F141" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G141" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H141" s="40">
         <v>-1.9703999999999999</v>
@@ -33266,25 +33271,25 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B142" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D142" s="8">
         <v>3</v>
       </c>
       <c r="E142" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F142" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G142" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H142" s="40">
         <v>16.39</v>
@@ -33293,22 +33298,22 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B143" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D143" s="8">
         <v>3</v>
       </c>
       <c r="E143" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F143" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G143" s="10" t="s">
         <v>23</v>
@@ -33320,25 +33325,25 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B144" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D144" s="8">
         <v>3</v>
       </c>
       <c r="E144" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F144" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G144" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H144" s="40">
         <v>34</v>
@@ -33347,22 +33352,22 @@
     </row>
     <row r="145" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A145" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B145" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D145" s="8">
         <v>3</v>
       </c>
       <c r="E145" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F145" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G145" s="10" t="s">
         <v>25</v>
@@ -33374,25 +33379,25 @@
     </row>
     <row r="146" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B146" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D146" s="8">
         <v>3</v>
       </c>
       <c r="E146" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F146" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G146" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H146" s="40">
         <v>44327</v>
@@ -33416,19 +33421,19 @@
         <v>31</v>
       </c>
       <c r="B148" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D148" s="8">
         <v>3</v>
       </c>
       <c r="E148" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F148" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G148" s="10" t="s">
         <v>23</v>
@@ -34459,19 +34464,19 @@
         <v>31</v>
       </c>
       <c r="B149" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D149" s="8">
         <v>3</v>
       </c>
       <c r="E149" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F149" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G149" s="10" t="s">
         <v>24</v>
@@ -35502,19 +35507,19 @@
         <v>31</v>
       </c>
       <c r="B150" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D150" s="8">
         <v>3</v>
       </c>
       <c r="E150" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F150" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G150" s="10" t="s">
         <v>25</v>
@@ -36545,19 +36550,19 @@
         <v>31</v>
       </c>
       <c r="B151" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C151" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D151" s="8">
         <v>3</v>
       </c>
       <c r="E151" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F151" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G151" s="10" t="s">
         <v>26</v>
@@ -37588,19 +37593,19 @@
         <v>31</v>
       </c>
       <c r="B152" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D152" s="8">
         <v>3</v>
       </c>
       <c r="E152" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F152" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G152" s="10" t="s">
         <v>27</v>
@@ -38632,19 +38637,19 @@
         <v>31</v>
       </c>
       <c r="B153" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D153" s="8">
         <v>3</v>
       </c>
       <c r="E153" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F153" s="28" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G153" s="10" t="s">
         <v>28</v>
@@ -39676,19 +39681,19 @@
         <v>31</v>
       </c>
       <c r="B154" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C154" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D154" s="14">
         <v>3</v>
       </c>
       <c r="E154" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F154" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G154" s="14" t="s">
         <v>29</v>
@@ -39697,7 +39702,7 @@
         <v>35</v>
       </c>
       <c r="I154" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J154" s="10"/>
       <c r="K154"/>
@@ -41747,85 +41752,85 @@
     </row>
     <row r="156" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A156" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B156" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C156" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D156" s="8">
         <v>3</v>
       </c>
       <c r="E156" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F156" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G156" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H156" s="47">
         <v>601.7722</v>
       </c>
       <c r="I156" s="31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J156" s="10"/>
     </row>
     <row r="157" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A157" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B157" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C157" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D157" s="8">
         <v>3</v>
       </c>
       <c r="E157" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F157" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G157" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H157" s="47">
         <v>2.8800530000000002</v>
       </c>
       <c r="I157" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J157" s="10"/>
     </row>
     <row r="158" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A158" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B158" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C158" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D158" s="8">
         <v>3</v>
       </c>
       <c r="E158" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F158" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G158" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H158" s="47">
         <v>-1095.03</v>
@@ -41835,25 +41840,25 @@
     </row>
     <row r="159" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A159" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B159" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C159" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D159" s="8">
         <v>3</v>
       </c>
       <c r="E159" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F159" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G159" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H159" s="47">
         <v>2.7113000000000002E-2</v>
@@ -41863,25 +41868,25 @@
     </row>
     <row r="160" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A160" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B160" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C160" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D160" s="8">
         <v>3</v>
       </c>
       <c r="E160" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F160" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G160" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H160" s="47">
         <v>0</v>
@@ -41891,25 +41896,25 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B161" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C161" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D161" s="8">
         <v>3</v>
       </c>
       <c r="E161" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F161" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G161" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H161" s="47">
         <v>0</v>
@@ -41921,55 +41926,55 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B162" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C162" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D162" s="8">
         <v>3</v>
       </c>
       <c r="E162" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F162" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G162" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H162" s="47">
         <v>-0.223</v>
       </c>
       <c r="I162" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J162" s="10"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B163" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C163" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D163" s="8">
         <v>3</v>
       </c>
       <c r="E163" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F163" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G163" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H163" s="47">
         <v>1</v>
@@ -41981,25 +41986,25 @@
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B164" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C164" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D164" s="8">
         <v>3</v>
       </c>
       <c r="E164" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F164" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G164" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H164" s="47">
         <v>27.755389999999998</v>
@@ -42009,25 +42014,25 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B165" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C165" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D165" s="8">
         <v>3</v>
       </c>
       <c r="E165" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F165" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G165" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H165" s="47">
         <v>0.52579799999999999</v>
@@ -42037,25 +42042,25 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B166" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C166" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D166" s="8">
         <v>3</v>
       </c>
       <c r="E166" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F166" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G166" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H166" s="47">
         <v>19.667739999999998</v>
@@ -42065,25 +42070,25 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B167" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C167" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D167" s="8">
         <v>3</v>
       </c>
       <c r="E167" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F167" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G167" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H167" s="47">
         <v>34.446179999999998</v>
@@ -42093,25 +42098,25 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B168" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C168" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D168" s="8">
         <v>3</v>
       </c>
       <c r="E168" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F168" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G168" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H168" s="47">
         <v>5.7845329999999997</v>
@@ -42121,25 +42126,25 @@
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B169" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C169" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D169" s="8">
         <v>3</v>
       </c>
       <c r="E169" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F169" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G169" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H169" s="47">
         <v>-3990.6190000000001</v>
@@ -42149,25 +42154,25 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B170" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C170" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D170" s="8">
         <v>3</v>
       </c>
       <c r="E170" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F170" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G170" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H170" s="47">
         <v>-11590.4</v>
@@ -42177,25 +42182,25 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B171" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D171" s="8">
         <v>3</v>
       </c>
       <c r="E171" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F171" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G171" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H171" s="47">
         <v>0</v>
@@ -42205,25 +42210,25 @@
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B172" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C172" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D172" s="8">
         <v>3</v>
       </c>
       <c r="E172" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F172" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G172" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H172" s="47">
         <v>8388.6</v>
@@ -42233,25 +42238,25 @@
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B173" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C173" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D173" s="8">
         <v>3</v>
       </c>
       <c r="E173" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F173" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G173" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H173" s="47">
         <v>125829.1</v>
@@ -42273,19 +42278,19 @@
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B175" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D175" s="8">
         <v>3</v>
       </c>
       <c r="E175" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F175" s="28">
         <v>8158</v>
@@ -42301,19 +42306,19 @@
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B176" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D176" s="8">
         <v>3</v>
       </c>
       <c r="E176" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F176" s="28">
         <v>8158</v>
@@ -42341,19 +42346,19 @@
     </row>
     <row r="178" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A178" s="23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B178" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C178" s="33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D178" s="19">
         <v>3</v>
       </c>
       <c r="E178" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F178" s="23">
         <v>55076</v>
@@ -43426,22 +43431,22 @@
     </row>
     <row r="183" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A183" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B183" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C183" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D183" s="8">
         <v>3</v>
       </c>
       <c r="E183" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F183" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G183" s="10"/>
       <c r="I183" s="8" t="s">
@@ -43451,22 +43456,22 @@
     </row>
     <row r="184" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A184" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B184" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C184" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D184" s="8">
         <v>3</v>
       </c>
       <c r="E184" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F184" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G184" s="10"/>
       <c r="I184" s="8" t="s">
@@ -43487,22 +43492,22 @@
     </row>
     <row r="186" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A186" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B186" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C186" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D186" s="8">
         <v>3</v>
       </c>
       <c r="E186" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F186" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G186" s="10"/>
       <c r="I186" s="8" t="s">
@@ -43512,22 +43517,22 @@
     </row>
     <row r="187" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A187" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B187" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C187" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D187" s="8">
         <v>3</v>
       </c>
       <c r="E187" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F187" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G187" s="10"/>
       <c r="I187" s="8" t="s">
@@ -43537,22 +43542,22 @@
     </row>
     <row r="188" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A188" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B188" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C188" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D188" s="8">
         <v>3</v>
       </c>
       <c r="E188" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F188" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I188" s="8" t="s">
         <v>17</v>
@@ -43561,22 +43566,22 @@
     </row>
     <row r="189" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A189" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B189" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C189" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D189" s="8">
         <v>3</v>
       </c>
       <c r="E189" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F189" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I189" s="8" t="s">
         <v>17</v>
